--- a/data-excel/Kiem_tra.xlsx
+++ b/data-excel/Kiem_tra.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790"/>
   </bookViews>
   <sheets>
     <sheet name="shope, kami code" sheetId="14" r:id="rId1"/>
-    <sheet name="mater" sheetId="4" r:id="rId2"/>
+    <sheet name="Tổng hợp" sheetId="15" r:id="rId2"/>
+    <sheet name="mater" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>Tên</t>
   </si>
@@ -175,190 +176,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="423">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill>
@@ -523,2788 +350,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3332,7 +377,6 @@
       <sheetName val="dong-vat"/>
       <sheetName val="hoat-hinh"/>
       <sheetName val="cung-hoang-dao"/>
-      <sheetName val="master_shope, kami code"/>
       <sheetName val="mater"/>
     </sheetNames>
     <sheetDataSet>
@@ -3341,6 +385,9 @@
           <cell r="C3" t="str">
             <v>Tay phật lá bồ đề</v>
           </cell>
+          <cell r="L3" t="str">
+            <v>KM012</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
@@ -3362,6 +409,9 @@
           <cell r="C6" t="str">
             <v>Phật (Lọ màu 5ml) 01</v>
           </cell>
+          <cell r="L6" t="str">
+            <v>KM018</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="C7" t="str">
@@ -3383,16 +433,25 @@
           <cell r="C9" t="str">
             <v>Phật (Lọ màu 5ml) 02</v>
           </cell>
+          <cell r="L9" t="str">
+            <v>KM021</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="C10" t="str">
             <v>Phật (Lọ màu 5ml) 03</v>
           </cell>
+          <cell r="L10" t="str">
+            <v>KM022</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="C11" t="str">
             <v>Phật 04</v>
           </cell>
+          <cell r="L11" t="str">
+            <v>KM023</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="C12" t="str">
@@ -3421,6 +480,9 @@
         <row r="15">
           <cell r="C15" t="str">
             <v>Phật vạn hoa</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>KM024</v>
           </cell>
         </row>
       </sheetData>
@@ -3429,80 +491,128 @@
           <cell r="C3" t="str">
             <v>Phong cảnh biển</v>
           </cell>
+          <cell r="L3" t="str">
+            <v>KM025</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
             <v>Phong cảnh đồng quê</v>
           </cell>
+          <cell r="L4" t="str">
+            <v>KM026</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="C5" t="str">
             <v>Phong cảnh phương Tây</v>
           </cell>
+          <cell r="L5" t="str">
+            <v>KM027</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="C6" t="str">
             <v>Cánh đồng lúa mì</v>
           </cell>
+          <cell r="L6" t="str">
+            <v>KM028</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="C7" t="str">
             <v>Phong cảnh 01</v>
           </cell>
+          <cell r="L7" t="str">
+            <v>KM029</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="C8" t="str">
             <v>Phong cảnh 02</v>
           </cell>
+          <cell r="L8" t="str">
+            <v>KM030</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="C9" t="str">
             <v>Phong cảnh 03</v>
           </cell>
+          <cell r="L9" t="str">
+            <v>KM031</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="C10" t="str">
             <v>Phong cảnh Nhật Bản 01</v>
           </cell>
+          <cell r="L10" t="str">
+            <v>KM032</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="C11" t="str">
             <v>Phong cảnh Sông núi 01</v>
           </cell>
+          <cell r="L11" t="str">
+            <v>KM033</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="C12" t="str">
             <v>Phong cảnh 04</v>
           </cell>
+          <cell r="L12" t="str">
+            <v>KM034</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="C13" t="str">
             <v>Mẹ thiên nhiên</v>
           </cell>
+          <cell r="L13" t="str">
+            <v>KM035</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="C14" t="str">
             <v>Phong cảnh Sông núi 02</v>
           </cell>
+          <cell r="L14" t="str">
+            <v>KM036</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="C15" t="str">
             <v>Phong cảnh mùa thu</v>
           </cell>
+          <cell r="L15" t="str">
+            <v>KM037</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="C16" t="str">
             <v>Bồng lai tiên cảnh</v>
           </cell>
+          <cell r="L16" t="str">
+            <v>KM038</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="C17" t="str">
             <v>Phong cảnh Nhật Bản 02</v>
           </cell>
+          <cell r="L17" t="str">
+            <v>KM039</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="C18" t="str">
             <v>Thuyền và biển</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>KM040</v>
           </cell>
         </row>
         <row r="19">
@@ -3527,10 +637,16 @@
           <cell r="C3" t="str">
             <v>Mẹ và bé 01</v>
           </cell>
+          <cell r="L3" t="str">
+            <v>KM041</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
             <v>Mẹ và bé 02</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>KM042</v>
           </cell>
         </row>
       </sheetData>
@@ -3539,46 +655,73 @@
           <cell r="C3" t="str">
             <v>Hoa mẫu đơn</v>
           </cell>
+          <cell r="L3" t="str">
+            <v>KM043</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
             <v>Hoa 01</v>
           </cell>
+          <cell r="L4" t="str">
+            <v>KM044</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="C5" t="str">
             <v>Hoa hướng dương 01</v>
           </cell>
+          <cell r="L5" t="str">
+            <v>KM045</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="C6" t="str">
             <v>Bức tường hoa hồng</v>
           </cell>
+          <cell r="L6" t="str">
+            <v>KM046</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="C7" t="str">
             <v>Hoa Tuy Líp 01</v>
           </cell>
+          <cell r="L7" t="str">
+            <v>KM047</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="C8" t="str">
             <v>Hoa hướng dương 02</v>
           </cell>
+          <cell r="L8" t="str">
+            <v>KM048</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="C9" t="str">
             <v>Hàng rào hoa</v>
           </cell>
+          <cell r="L9" t="str">
+            <v>KM049</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="C10" t="str">
             <v>Hoa cẩm chướng</v>
           </cell>
+          <cell r="L10" t="str">
+            <v>KM050</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="C11" t="str">
             <v>Hoa Tuy Líp 02</v>
           </cell>
+          <cell r="L11" t="str">
+            <v>KM051</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="C12" t="str">
@@ -3599,6 +742,9 @@
         <row r="14">
           <cell r="C14" t="str">
             <v>Hoa hướng dương 03</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>KM052</v>
           </cell>
         </row>
         <row r="15">
@@ -3615,6 +761,9 @@
           <cell r="C3" t="str">
             <v>Tranh tròn hoa sen 01</v>
           </cell>
+          <cell r="L3" t="str">
+            <v>KM053</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
@@ -3638,10 +787,16 @@
           <cell r="C3" t="str">
             <v>Tình yêu 01</v>
           </cell>
+          <cell r="L3" t="str">
+            <v>KM054</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
             <v>Tình yêu 01</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>KM055</v>
           </cell>
         </row>
       </sheetData>
@@ -3650,30 +805,48 @@
           <cell r="C3" t="str">
             <v>Nàng thơ 01</v>
           </cell>
+          <cell r="L3" t="str">
+            <v>KM056</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
             <v>Nàng thơ 02</v>
           </cell>
+          <cell r="L4" t="str">
+            <v>KM057</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="C5" t="str">
             <v>Nàng thơ 03</v>
           </cell>
+          <cell r="L5" t="str">
+            <v>KM058</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="C6" t="str">
             <v>Nàng dâu xứ Trung</v>
           </cell>
+          <cell r="L6" t="str">
+            <v>KM059</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="C7" t="str">
             <v>Nàng thơ 04</v>
           </cell>
+          <cell r="L7" t="str">
+            <v>KM060</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="C8" t="str">
             <v>Nàng thơ 05</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>KM061</v>
           </cell>
         </row>
         <row r="9">
@@ -3690,50 +863,80 @@
           <cell r="C3" t="str">
             <v>Phượng hoàng 01</v>
           </cell>
+          <cell r="L3" t="str">
+            <v>KM062</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
             <v>Xứ sở thần tiên</v>
           </cell>
+          <cell r="L4" t="str">
+            <v>KM063</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="C5" t="str">
             <v>Phượng hoàng 02</v>
           </cell>
+          <cell r="L5" t="str">
+            <v>KM064</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="C6" t="str">
             <v>Đôi chim</v>
           </cell>
+          <cell r="L6" t="str">
+            <v>KM065</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="C7" t="str">
             <v>Cánh đồng hoa và chú cún 01</v>
           </cell>
+          <cell r="L7" t="str">
+            <v>KM066</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="C8" t="str">
             <v>Cánh đồng hoa và chú cún 02</v>
           </cell>
+          <cell r="L8" t="str">
+            <v>KM067</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="C9" t="str">
             <v>Bạch mã</v>
           </cell>
+          <cell r="L9" t="str">
+            <v>KM068</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="C10" t="str">
             <v>Cánh đồng hoa và chú cún 03</v>
           </cell>
+          <cell r="L10" t="str">
+            <v>KM069</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="C11" t="str">
             <v>Mã đáo thành công</v>
           </cell>
+          <cell r="L11" t="str">
+            <v>KM070</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="C12" t="str">
             <v>Đôi công</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>KM071</v>
           </cell>
         </row>
         <row r="13">
@@ -3758,45 +961,72 @@
           <cell r="C3" t="str">
             <v>Sasuke</v>
           </cell>
+          <cell r="L3" t="str">
+            <v>KM072</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
             <v>Vua hải tặc 01</v>
           </cell>
+          <cell r="L4" t="str">
+            <v>KM073</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="C5" t="str">
             <v>Vua hải tặc 02</v>
           </cell>
+          <cell r="L5" t="str">
+            <v>KM074</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="C6" t="str">
             <v>Vua hải tặc 03</v>
           </cell>
+          <cell r="L6" t="str">
+            <v>KM075</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="C7" t="str">
             <v>Naruto</v>
           </cell>
+          <cell r="L7" t="str">
+            <v>KM076</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="C8" t="str">
             <v>Kakashi</v>
           </cell>
+          <cell r="L8" t="str">
+            <v>KM077</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="C9" t="str">
             <v>Vua hải tặc 04</v>
           </cell>
+          <cell r="L9" t="str">
+            <v>KM078</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="C10" t="str">
             <v>Vua hải tặc 05</v>
           </cell>
+          <cell r="L10" t="str">
+            <v>KM079</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="C11" t="str">
             <v>Vua hải tặc 06</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>KM080</v>
           </cell>
         </row>
       </sheetData>
@@ -3805,20 +1035,28 @@
           <cell r="C3" t="str">
             <v>Tranh khung tròn 12 cung hoàng đạo</v>
           </cell>
+          <cell r="L3" t="str">
+            <v>KM081</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="C4" t="str">
             <v>Tranh khung tròn 12 con giáp 01</v>
           </cell>
+          <cell r="L4" t="str">
+            <v>KM082</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="C5" t="str">
             <v>Tranh khung tròn 12 con giáp 02</v>
           </cell>
+          <cell r="L5" t="str">
+            <v>KM083</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3845,9 +1083,12 @@
           <cell r="C4" t="str">
             <v>Chúa toả hào quang</v>
           </cell>
+          <cell r="L4" t="str">
+            <v>KM084</v>
+          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4118,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4154,160 +1395,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="2" customFormat="1" ht="15.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3" t="s">
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3" t="s">
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="2" customFormat="1" ht="15.75">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4322,7 +1563,7 @@
       </c>
       <c r="C3" s="1" t="str">
         <f>IF([1]phat!$L3="","",[1]phat!$L3)</f>
-        <v/>
+        <v>KM012</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>IF('[1]phong-canh'!$C3="","",'[1]phong-canh'!$C3)</f>
@@ -4334,7 +1575,7 @@
       </c>
       <c r="F3" t="str">
         <f>IF('[1]phong-canh'!$L3 = "", "", '[1]phong-canh'!$L3)</f>
-        <v/>
+        <v>KM025</v>
       </c>
       <c r="G3" s="1" t="str">
         <f>IF('[1]me-va-be'!$C3="","",'[1]me-va-be'!$C3)</f>
@@ -4346,7 +1587,7 @@
       </c>
       <c r="I3" t="str">
         <f>IF('[1]me-va-be'!$L3 = "", "", '[1]me-va-be'!$L3)</f>
-        <v/>
+        <v>KM041</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>IF([1]hoa!$C3="","",[1]hoa!$C3)</f>
@@ -4358,7 +1599,7 @@
       </c>
       <c r="L3" t="str">
         <f>IF([1]hoa!$L3 = "", "", [1]hoa!$L3)</f>
-        <v/>
+        <v>KM043</v>
       </c>
       <c r="M3" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C3="","",'[1]hoa-sen'!$C3)</f>
@@ -4370,7 +1611,7 @@
       </c>
       <c r="O3" t="str">
         <f>IF('[1]hoa-sen'!$L3 = "", "", '[1]hoa-sen'!$L3)</f>
-        <v/>
+        <v>KM053</v>
       </c>
       <c r="P3" s="1" t="str">
         <f>IF('[1]tinh-yeu'!$C3="","",'[1]tinh-yeu'!$C3)</f>
@@ -4382,7 +1623,7 @@
       </c>
       <c r="R3" t="str">
         <f>IF('[1]tinh-yeu'!$L3 = "", "", '[1]tinh-yeu'!$L3)</f>
-        <v/>
+        <v>KM054</v>
       </c>
       <c r="S3" s="1" t="str">
         <f>IF('[1]nang-tho'!$C3="","",'[1]nang-tho'!$C3)</f>
@@ -4394,7 +1635,7 @@
       </c>
       <c r="U3" t="str">
         <f>IF('[1]nang-tho'!$L3 = "", "", '[1]nang-tho'!$L3)</f>
-        <v/>
+        <v>KM056</v>
       </c>
       <c r="V3" s="1" t="str">
         <f>IF('[1]dong-vat'!$C3="","",'[1]dong-vat'!$C3)</f>
@@ -4406,7 +1647,7 @@
       </c>
       <c r="X3" t="str">
         <f>IF('[1]dong-vat'!$L3 = "", "", '[1]dong-vat'!$L3)</f>
-        <v/>
+        <v>KM062</v>
       </c>
       <c r="Y3" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C3="","",'[1]hoat-hinh'!$C3)</f>
@@ -4418,7 +1659,7 @@
       </c>
       <c r="AA3" t="str">
         <f>IF('[1]hoat-hinh'!$L3 = "", "", '[1]hoat-hinh'!$L3)</f>
-        <v/>
+        <v>KM072</v>
       </c>
       <c r="AB3" s="1" t="str">
         <f>IF('[1]cung-hoang-dao'!$C3="","",'[1]cung-hoang-dao'!$C3)</f>
@@ -4430,7 +1671,7 @@
       </c>
       <c r="AD3" t="str">
         <f>IF('[1]cung-hoang-dao'!$L3 = "", "", '[1]cung-hoang-dao'!$L3)</f>
-        <v/>
+        <v>KM081</v>
       </c>
       <c r="AE3" s="1" t="str">
         <f>IF([2]chua!$C3="","",[2]chua!$C3)</f>
@@ -4468,7 +1709,7 @@
       </c>
       <c r="F4" t="str">
         <f>IF('[1]phong-canh'!$L4 = "", "", '[1]phong-canh'!$L4)</f>
-        <v/>
+        <v>KM026</v>
       </c>
       <c r="G4" s="1" t="str">
         <f>IF('[1]me-va-be'!$C4="","",'[1]me-va-be'!$C4)</f>
@@ -4480,7 +1721,7 @@
       </c>
       <c r="I4" t="str">
         <f>IF('[1]me-va-be'!$L4 = "", "", '[1]me-va-be'!$L4)</f>
-        <v/>
+        <v>KM042</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>IF([1]hoa!$C4="","",[1]hoa!$C4)</f>
@@ -4492,7 +1733,7 @@
       </c>
       <c r="L4" t="str">
         <f>IF([1]hoa!$L4 = "", "", [1]hoa!$L4)</f>
-        <v/>
+        <v>KM044</v>
       </c>
       <c r="M4" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C4="","",'[1]hoa-sen'!$C4)</f>
@@ -4516,7 +1757,7 @@
       </c>
       <c r="R4" t="str">
         <f>IF('[1]tinh-yeu'!$L4 = "", "", '[1]tinh-yeu'!$L4)</f>
-        <v/>
+        <v>KM055</v>
       </c>
       <c r="S4" s="1" t="str">
         <f>IF('[1]nang-tho'!$C4="","",'[1]nang-tho'!$C4)</f>
@@ -4528,7 +1769,7 @@
       </c>
       <c r="U4" t="str">
         <f>IF('[1]nang-tho'!$L4 = "", "", '[1]nang-tho'!$L4)</f>
-        <v/>
+        <v>KM057</v>
       </c>
       <c r="V4" s="1" t="str">
         <f>IF('[1]dong-vat'!$C4="","",'[1]dong-vat'!$C4)</f>
@@ -4540,7 +1781,7 @@
       </c>
       <c r="X4" t="str">
         <f>IF('[1]dong-vat'!$L4 = "", "", '[1]dong-vat'!$L4)</f>
-        <v/>
+        <v>KM063</v>
       </c>
       <c r="Y4" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C4="","",'[1]hoat-hinh'!$C4)</f>
@@ -4552,7 +1793,7 @@
       </c>
       <c r="AA4" t="str">
         <f>IF('[1]hoat-hinh'!$L4 = "", "", '[1]hoat-hinh'!$L4)</f>
-        <v/>
+        <v>KM073</v>
       </c>
       <c r="AB4" s="1" t="str">
         <f>IF('[1]cung-hoang-dao'!$C4="","",'[1]cung-hoang-dao'!$C4)</f>
@@ -4564,7 +1805,7 @@
       </c>
       <c r="AD4" t="str">
         <f>IF('[1]cung-hoang-dao'!$L4 = "", "", '[1]cung-hoang-dao'!$L4)</f>
-        <v/>
+        <v>KM082</v>
       </c>
       <c r="AE4" s="1" t="str">
         <f>IF([2]chua!$C4="","",[2]chua!$C4)</f>
@@ -4576,7 +1817,7 @@
       </c>
       <c r="AG4" t="str">
         <f>IF([2]chua!$L4 = "", "", [2]chua!$L4)</f>
-        <v/>
+        <v>KM084</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -4602,7 +1843,7 @@
       </c>
       <c r="F5" t="str">
         <f>IF('[1]phong-canh'!$L5 = "", "", '[1]phong-canh'!$L5)</f>
-        <v/>
+        <v>KM027</v>
       </c>
       <c r="G5" s="1" t="str">
         <f>IF('[1]me-va-be'!$C5="","",'[1]me-va-be'!$C5)</f>
@@ -4626,7 +1867,7 @@
       </c>
       <c r="L5" t="str">
         <f>IF([1]hoa!$L5 = "", "", [1]hoa!$L5)</f>
-        <v/>
+        <v>KM045</v>
       </c>
       <c r="M5" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C5="","",'[1]hoa-sen'!$C5)</f>
@@ -4662,7 +1903,7 @@
       </c>
       <c r="U5" t="str">
         <f>IF('[1]nang-tho'!$L5 = "", "", '[1]nang-tho'!$L5)</f>
-        <v/>
+        <v>KM058</v>
       </c>
       <c r="V5" s="1" t="str">
         <f>IF('[1]dong-vat'!$C5="","",'[1]dong-vat'!$C5)</f>
@@ -4674,7 +1915,7 @@
       </c>
       <c r="X5" t="str">
         <f>IF('[1]dong-vat'!$L5 = "", "", '[1]dong-vat'!$L5)</f>
-        <v/>
+        <v>KM064</v>
       </c>
       <c r="Y5" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C5="","",'[1]hoat-hinh'!$C5)</f>
@@ -4686,7 +1927,7 @@
       </c>
       <c r="AA5" t="str">
         <f>IF('[1]hoat-hinh'!$L5 = "", "", '[1]hoat-hinh'!$L5)</f>
-        <v/>
+        <v>KM074</v>
       </c>
       <c r="AB5" s="1" t="str">
         <f>IF('[1]cung-hoang-dao'!$C5="","",'[1]cung-hoang-dao'!$C5)</f>
@@ -4698,7 +1939,7 @@
       </c>
       <c r="AD5" t="str">
         <f>IF('[1]cung-hoang-dao'!$L5 = "", "", '[1]cung-hoang-dao'!$L5)</f>
-        <v/>
+        <v>KM083</v>
       </c>
       <c r="AE5" s="1" t="str">
         <f>IF([2]chua!$C5="","",[2]chua!$C5)</f>
@@ -4724,7 +1965,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>IF([1]phat!$L6="","",[1]phat!$L6)</f>
-        <v/>
+        <v>KM018</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>IF('[1]phong-canh'!$C6="","",'[1]phong-canh'!$C6)</f>
@@ -4736,7 +1977,7 @@
       </c>
       <c r="F6" t="str">
         <f>IF('[1]phong-canh'!$L6 = "", "", '[1]phong-canh'!$L6)</f>
-        <v/>
+        <v>KM028</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>IF('[1]me-va-be'!$C6="","",'[1]me-va-be'!$C6)</f>
@@ -4760,7 +2001,7 @@
       </c>
       <c r="L6" t="str">
         <f>IF([1]hoa!$L6 = "", "", [1]hoa!$L6)</f>
-        <v/>
+        <v>KM046</v>
       </c>
       <c r="M6" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C6="","",'[1]hoa-sen'!$C6)</f>
@@ -4796,7 +2037,7 @@
       </c>
       <c r="U6" t="str">
         <f>IF('[1]nang-tho'!$L6 = "", "", '[1]nang-tho'!$L6)</f>
-        <v/>
+        <v>KM059</v>
       </c>
       <c r="V6" s="1" t="str">
         <f>IF('[1]dong-vat'!$C6="","",'[1]dong-vat'!$C6)</f>
@@ -4808,7 +2049,7 @@
       </c>
       <c r="X6" t="str">
         <f>IF('[1]dong-vat'!$L6 = "", "", '[1]dong-vat'!$L6)</f>
-        <v/>
+        <v>KM065</v>
       </c>
       <c r="Y6" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C6="","",'[1]hoat-hinh'!$C6)</f>
@@ -4820,7 +2061,7 @@
       </c>
       <c r="AA6" t="str">
         <f>IF('[1]hoat-hinh'!$L6 = "", "", '[1]hoat-hinh'!$L6)</f>
-        <v/>
+        <v>KM075</v>
       </c>
       <c r="AB6" s="1" t="str">
         <f>IF('[1]cung-hoang-dao'!$C6="","",'[1]cung-hoang-dao'!$C6)</f>
@@ -4870,7 +2111,7 @@
       </c>
       <c r="F7" t="str">
         <f>IF('[1]phong-canh'!$L7 = "", "", '[1]phong-canh'!$L7)</f>
-        <v/>
+        <v>KM029</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>IF('[1]me-va-be'!$C7="","",'[1]me-va-be'!$C7)</f>
@@ -4894,7 +2135,7 @@
       </c>
       <c r="L7" t="str">
         <f>IF([1]hoa!$L7 = "", "", [1]hoa!$L7)</f>
-        <v/>
+        <v>KM047</v>
       </c>
       <c r="M7" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C7="","",'[1]hoa-sen'!$C7)</f>
@@ -4930,7 +2171,7 @@
       </c>
       <c r="U7" t="str">
         <f>IF('[1]nang-tho'!$L7 = "", "", '[1]nang-tho'!$L7)</f>
-        <v/>
+        <v>KM060</v>
       </c>
       <c r="V7" s="1" t="str">
         <f>IF('[1]dong-vat'!$C7="","",'[1]dong-vat'!$C7)</f>
@@ -4942,7 +2183,7 @@
       </c>
       <c r="X7" t="str">
         <f>IF('[1]dong-vat'!$L7 = "", "", '[1]dong-vat'!$L7)</f>
-        <v/>
+        <v>KM066</v>
       </c>
       <c r="Y7" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C7="","",'[1]hoat-hinh'!$C7)</f>
@@ -4954,7 +2195,7 @@
       </c>
       <c r="AA7" t="str">
         <f>IF('[1]hoat-hinh'!$L7 = "", "", '[1]hoat-hinh'!$L7)</f>
-        <v/>
+        <v>KM076</v>
       </c>
       <c r="AB7" s="1" t="str">
         <f>IF('[1]cung-hoang-dao'!$C7="","",'[1]cung-hoang-dao'!$C7)</f>
@@ -5004,7 +2245,7 @@
       </c>
       <c r="F8" t="str">
         <f>IF('[1]phong-canh'!$L8 = "", "", '[1]phong-canh'!$L8)</f>
-        <v/>
+        <v>KM030</v>
       </c>
       <c r="G8" s="1" t="str">
         <f>IF('[1]me-va-be'!$C8="","",'[1]me-va-be'!$C8)</f>
@@ -5028,7 +2269,7 @@
       </c>
       <c r="L8" t="str">
         <f>IF([1]hoa!$L8 = "", "", [1]hoa!$L8)</f>
-        <v/>
+        <v>KM048</v>
       </c>
       <c r="M8" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C8="","",'[1]hoa-sen'!$C8)</f>
@@ -5064,7 +2305,7 @@
       </c>
       <c r="U8" t="str">
         <f>IF('[1]nang-tho'!$L8 = "", "", '[1]nang-tho'!$L8)</f>
-        <v/>
+        <v>KM061</v>
       </c>
       <c r="V8" s="1" t="str">
         <f>IF('[1]dong-vat'!$C8="","",'[1]dong-vat'!$C8)</f>
@@ -5076,7 +2317,7 @@
       </c>
       <c r="X8" t="str">
         <f>IF('[1]dong-vat'!$L8 = "", "", '[1]dong-vat'!$L8)</f>
-        <v/>
+        <v>KM067</v>
       </c>
       <c r="Y8" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C8="","",'[1]hoat-hinh'!$C8)</f>
@@ -5088,7 +2329,7 @@
       </c>
       <c r="AA8" t="str">
         <f>IF('[1]hoat-hinh'!$L8 = "", "", '[1]hoat-hinh'!$L8)</f>
-        <v/>
+        <v>KM077</v>
       </c>
       <c r="AB8" s="1" t="str">
         <f>IF('[1]cung-hoang-dao'!$C8="","",'[1]cung-hoang-dao'!$C8)</f>
@@ -5126,7 +2367,7 @@
       </c>
       <c r="C9" s="1" t="str">
         <f>IF([1]phat!$L9="","",[1]phat!$L9)</f>
-        <v/>
+        <v>KM021</v>
       </c>
       <c r="D9" s="1" t="str">
         <f>IF('[1]phong-canh'!$C9="","",'[1]phong-canh'!$C9)</f>
@@ -5138,7 +2379,7 @@
       </c>
       <c r="F9" t="str">
         <f>IF('[1]phong-canh'!$L9 = "", "", '[1]phong-canh'!$L9)</f>
-        <v/>
+        <v>KM031</v>
       </c>
       <c r="G9" s="1" t="str">
         <f>IF('[1]me-va-be'!$C9="","",'[1]me-va-be'!$C9)</f>
@@ -5162,7 +2403,7 @@
       </c>
       <c r="L9" t="str">
         <f>IF([1]hoa!$L9 = "", "", [1]hoa!$L9)</f>
-        <v/>
+        <v>KM049</v>
       </c>
       <c r="M9" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C9="","",'[1]hoa-sen'!$C9)</f>
@@ -5210,7 +2451,7 @@
       </c>
       <c r="X9" t="str">
         <f>IF('[1]dong-vat'!$L9 = "", "", '[1]dong-vat'!$L9)</f>
-        <v/>
+        <v>KM068</v>
       </c>
       <c r="Y9" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C9="","",'[1]hoat-hinh'!$C9)</f>
@@ -5222,7 +2463,7 @@
       </c>
       <c r="AA9" t="str">
         <f>IF('[1]hoat-hinh'!$L9 = "", "", '[1]hoat-hinh'!$L9)</f>
-        <v/>
+        <v>KM078</v>
       </c>
       <c r="AB9" s="1" t="str">
         <f>IF('[1]cung-hoang-dao'!$C9="","",'[1]cung-hoang-dao'!$C9)</f>
@@ -5260,7 +2501,7 @@
       </c>
       <c r="C10" s="1" t="str">
         <f>IF([1]phat!$L10="","",[1]phat!$L10)</f>
-        <v/>
+        <v>KM022</v>
       </c>
       <c r="D10" s="1" t="str">
         <f>IF('[1]phong-canh'!$C10="","",'[1]phong-canh'!$C10)</f>
@@ -5272,7 +2513,7 @@
       </c>
       <c r="F10" t="str">
         <f>IF('[1]phong-canh'!$L10 = "", "", '[1]phong-canh'!$L10)</f>
-        <v/>
+        <v>KM032</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>IF('[1]me-va-be'!$C10="","",'[1]me-va-be'!$C10)</f>
@@ -5296,7 +2537,7 @@
       </c>
       <c r="L10" t="str">
         <f>IF([1]hoa!$L10 = "", "", [1]hoa!$L10)</f>
-        <v/>
+        <v>KM050</v>
       </c>
       <c r="M10" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C10="","",'[1]hoa-sen'!$C10)</f>
@@ -5344,7 +2585,7 @@
       </c>
       <c r="X10" t="str">
         <f>IF('[1]dong-vat'!$L10 = "", "", '[1]dong-vat'!$L10)</f>
-        <v/>
+        <v>KM069</v>
       </c>
       <c r="Y10" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C10="","",'[1]hoat-hinh'!$C10)</f>
@@ -5356,7 +2597,7 @@
       </c>
       <c r="AA10" t="str">
         <f>IF('[1]hoat-hinh'!$L10 = "", "", '[1]hoat-hinh'!$L10)</f>
-        <v/>
+        <v>KM079</v>
       </c>
       <c r="AB10" s="1" t="str">
         <f>IF('[1]cung-hoang-dao'!$C10="","",'[1]cung-hoang-dao'!$C10)</f>
@@ -5394,7 +2635,7 @@
       </c>
       <c r="C11" s="1" t="str">
         <f>IF([1]phat!$L11="","",[1]phat!$L11)</f>
-        <v/>
+        <v>KM023</v>
       </c>
       <c r="D11" s="1" t="str">
         <f>IF('[1]phong-canh'!$C11="","",'[1]phong-canh'!$C11)</f>
@@ -5406,7 +2647,7 @@
       </c>
       <c r="F11" t="str">
         <f>IF('[1]phong-canh'!$L11 = "", "", '[1]phong-canh'!$L11)</f>
-        <v/>
+        <v>KM033</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>IF('[1]me-va-be'!$C11="","",'[1]me-va-be'!$C11)</f>
@@ -5430,7 +2671,7 @@
       </c>
       <c r="L11" t="str">
         <f>IF([1]hoa!$L11 = "", "", [1]hoa!$L11)</f>
-        <v/>
+        <v>KM051</v>
       </c>
       <c r="M11" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C11="","",'[1]hoa-sen'!$C11)</f>
@@ -5478,7 +2719,7 @@
       </c>
       <c r="X11" t="str">
         <f>IF('[1]dong-vat'!$L11 = "", "", '[1]dong-vat'!$L11)</f>
-        <v/>
+        <v>KM070</v>
       </c>
       <c r="Y11" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C11="","",'[1]hoat-hinh'!$C11)</f>
@@ -5490,7 +2731,7 @@
       </c>
       <c r="AA11" t="str">
         <f>IF('[1]hoat-hinh'!$L11 = "", "", '[1]hoat-hinh'!$L11)</f>
-        <v/>
+        <v>KM080</v>
       </c>
       <c r="AB11" s="1" t="str">
         <f>IF('[1]cung-hoang-dao'!$C11="","",'[1]cung-hoang-dao'!$C11)</f>
@@ -5540,7 +2781,7 @@
       </c>
       <c r="F12" t="str">
         <f>IF('[1]phong-canh'!$L12 = "", "", '[1]phong-canh'!$L12)</f>
-        <v/>
+        <v>KM034</v>
       </c>
       <c r="G12" s="1" t="str">
         <f>IF('[1]me-va-be'!$C12="","",'[1]me-va-be'!$C12)</f>
@@ -5612,7 +2853,7 @@
       </c>
       <c r="X12" t="str">
         <f>IF('[1]dong-vat'!$L12 = "", "", '[1]dong-vat'!$L12)</f>
-        <v/>
+        <v>KM071</v>
       </c>
       <c r="Y12" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C12="","",'[1]hoat-hinh'!$C12)</f>
@@ -5674,7 +2915,7 @@
       </c>
       <c r="F13" t="str">
         <f>IF('[1]phong-canh'!$L13 = "", "", '[1]phong-canh'!$L13)</f>
-        <v/>
+        <v>KM035</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>IF('[1]me-va-be'!$C13="","",'[1]me-va-be'!$C13)</f>
@@ -5808,7 +3049,7 @@
       </c>
       <c r="F14" t="str">
         <f>IF('[1]phong-canh'!$L14 = "", "", '[1]phong-canh'!$L14)</f>
-        <v/>
+        <v>KM036</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>IF('[1]me-va-be'!$C14="","",'[1]me-va-be'!$C14)</f>
@@ -5832,7 +3073,7 @@
       </c>
       <c r="L14" t="str">
         <f>IF([1]hoa!$L14 = "", "", [1]hoa!$L14)</f>
-        <v/>
+        <v>KM052</v>
       </c>
       <c r="M14" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C14="","",'[1]hoa-sen'!$C14)</f>
@@ -5930,7 +3171,7 @@
       </c>
       <c r="C15" s="1" t="str">
         <f>IF([1]phat!$L15="","",[1]phat!$L15)</f>
-        <v/>
+        <v>KM024</v>
       </c>
       <c r="D15" s="1" t="str">
         <f>IF('[1]phong-canh'!$C15="","",'[1]phong-canh'!$C15)</f>
@@ -5942,7 +3183,7 @@
       </c>
       <c r="F15" t="str">
         <f>IF('[1]phong-canh'!$L15 = "", "", '[1]phong-canh'!$L15)</f>
-        <v/>
+        <v>KM037</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>IF('[1]me-va-be'!$C15="","",'[1]me-va-be'!$C15)</f>
@@ -6076,7 +3317,7 @@
       </c>
       <c r="F16" t="str">
         <f>IF('[1]phong-canh'!$L16 = "", "", '[1]phong-canh'!$L16)</f>
-        <v/>
+        <v>KM038</v>
       </c>
       <c r="G16" s="1" t="str">
         <f>IF('[1]me-va-be'!$C16="","",'[1]me-va-be'!$C16)</f>
@@ -6210,7 +3451,7 @@
       </c>
       <c r="F17" t="str">
         <f>IF('[1]phong-canh'!$L17 = "", "", '[1]phong-canh'!$L17)</f>
-        <v/>
+        <v>KM039</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>IF('[1]me-va-be'!$C17="","",'[1]me-va-be'!$C17)</f>
@@ -6344,7 +3585,7 @@
       </c>
       <c r="F18" t="str">
         <f>IF('[1]phong-canh'!$L18 = "", "", '[1]phong-canh'!$L18)</f>
-        <v/>
+        <v>KM040</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>IF('[1]me-va-be'!$C18="","",'[1]me-va-be'!$C18)</f>
@@ -17445,128 +14686,128 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:C100 E3:F100 H3:I100 K3:L100 N3:O100 Q3:R100 T3:U100 W3:X100 Z3:AA100 AC3:AD100 AF3:AG100">
-    <cfRule type="duplicateValues" dxfId="46" priority="26"/>
+  <conditionalFormatting sqref="B3:C100 E3:F100 H3:I100 N3:O100 Q3:R100 T3:U100 W3:X100 Z3:AA100 AC3:AD100 AF3:AG100 K3:L100">
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="expression" dxfId="45" priority="25">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>$B3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C100">
-    <cfRule type="expression" dxfId="44" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$C3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E100">
-    <cfRule type="expression" dxfId="43" priority="23">
+    <cfRule type="expression" dxfId="19" priority="23">
       <formula>$E3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F100">
-    <cfRule type="expression" dxfId="42" priority="21">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$F3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H100">
-    <cfRule type="expression" dxfId="41" priority="20">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>$H3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I100">
-    <cfRule type="expression" dxfId="40" priority="19">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$I3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K100">
-    <cfRule type="expression" dxfId="39" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$K3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L100">
-    <cfRule type="expression" dxfId="38" priority="17">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>$L3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N100">
-    <cfRule type="expression" dxfId="37" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>$N3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O100">
-    <cfRule type="expression" dxfId="36" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$O3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q100">
-    <cfRule type="expression" dxfId="35" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>$Q3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R100">
-    <cfRule type="expression" dxfId="34" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>$R3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T100">
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$T3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U100">
-    <cfRule type="expression" dxfId="32" priority="11">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$U3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W100">
-    <cfRule type="expression" dxfId="31" priority="10">
+    <cfRule type="expression" dxfId="7" priority="10">
       <formula>$W3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X100">
-    <cfRule type="expression" dxfId="30" priority="9">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>$X3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z100">
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$Z3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA100">
-    <cfRule type="expression" dxfId="28" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$AA3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC100">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$AC3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD100">
-    <cfRule type="expression" dxfId="26" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$AD3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF100">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$AF3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG100">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$AG3=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17576,6 +14817,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B7"/>
   <sheetViews>

--- a/data-excel/Kiem_tra.xlsx
+++ b/data-excel/Kiem_tra.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8355" windowHeight="7215" tabRatio="790"/>
   </bookViews>
   <sheets>
     <sheet name="shope, kami code" sheetId="14" r:id="rId1"/>
@@ -391,7 +391,7 @@
         </row>
         <row r="4">
           <cell r="C4" t="str">
-            <v>Phật trên đài sen 01</v>
+            <v>Phật trên đài sen</v>
           </cell>
           <cell r="K4" t="str">
             <v>KM019</v>
@@ -399,7 +399,7 @@
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>Phật 01</v>
+            <v>Phật</v>
           </cell>
           <cell r="K5" t="str">
             <v>KM017</v>
@@ -407,7 +407,7 @@
         </row>
         <row r="6">
           <cell r="C6" t="str">
-            <v>Phật (Lọ màu 5ml) 01</v>
+            <v>Phật (Lọ màu 5ml)</v>
           </cell>
           <cell r="L6" t="str">
             <v>KM018</v>
@@ -415,7 +415,7 @@
         </row>
         <row r="7">
           <cell r="C7" t="str">
-            <v>Phật 02</v>
+            <v>Phật</v>
           </cell>
           <cell r="K7" t="str">
             <v>KM016</v>
@@ -423,7 +423,7 @@
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>Phật 03</v>
+            <v>Phật</v>
           </cell>
           <cell r="K8" t="str">
             <v>KM020</v>
@@ -431,7 +431,7 @@
         </row>
         <row r="9">
           <cell r="C9" t="str">
-            <v>Phật (Lọ màu 5ml) 02</v>
+            <v>Phật (Lọ màu 5ml)</v>
           </cell>
           <cell r="L9" t="str">
             <v>KM021</v>
@@ -439,7 +439,7 @@
         </row>
         <row r="10">
           <cell r="C10" t="str">
-            <v>Phật (Lọ màu 5ml) 03</v>
+            <v>Phật (Lọ màu 5ml)</v>
           </cell>
           <cell r="L10" t="str">
             <v>KM022</v>
@@ -447,7 +447,7 @@
         </row>
         <row r="11">
           <cell r="C11" t="str">
-            <v>Phật 04</v>
+            <v>Phật</v>
           </cell>
           <cell r="L11" t="str">
             <v>KM023</v>
@@ -455,7 +455,7 @@
         </row>
         <row r="12">
           <cell r="C12" t="str">
-            <v>Phật trên đài sen 02</v>
+            <v>Phật trên đài sen</v>
           </cell>
           <cell r="K12" t="str">
             <v>KM014</v>
@@ -463,7 +463,7 @@
         </row>
         <row r="13">
           <cell r="C13" t="str">
-            <v>Phật 04</v>
+            <v>Phật</v>
           </cell>
           <cell r="K13" t="str">
             <v>KM003</v>
@@ -483,6 +483,30 @@
           </cell>
           <cell r="L15" t="str">
             <v>KM024</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Đức Phật</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>KM085</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>Đức Phật</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>KM086</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>Đức Phật</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>KM103</v>
           </cell>
         </row>
       </sheetData>
@@ -521,7 +545,7 @@
         </row>
         <row r="7">
           <cell r="C7" t="str">
-            <v>Phong cảnh 01</v>
+            <v>Phong cảnh</v>
           </cell>
           <cell r="L7" t="str">
             <v>KM029</v>
@@ -529,7 +553,7 @@
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>Phong cảnh 02</v>
+            <v>Phong cảnh</v>
           </cell>
           <cell r="L8" t="str">
             <v>KM030</v>
@@ -537,7 +561,7 @@
         </row>
         <row r="9">
           <cell r="C9" t="str">
-            <v>Phong cảnh 03</v>
+            <v>Phong cảnh</v>
           </cell>
           <cell r="L9" t="str">
             <v>KM031</v>
@@ -545,7 +569,7 @@
         </row>
         <row r="10">
           <cell r="C10" t="str">
-            <v>Phong cảnh Nhật Bản 01</v>
+            <v>Phong cảnh Nhật Bản</v>
           </cell>
           <cell r="L10" t="str">
             <v>KM032</v>
@@ -553,7 +577,7 @@
         </row>
         <row r="11">
           <cell r="C11" t="str">
-            <v>Phong cảnh Sông núi 01</v>
+            <v>Phong cảnh Sông núi</v>
           </cell>
           <cell r="L11" t="str">
             <v>KM033</v>
@@ -561,7 +585,7 @@
         </row>
         <row r="12">
           <cell r="C12" t="str">
-            <v>Phong cảnh 04</v>
+            <v>Phong cảnh</v>
           </cell>
           <cell r="L12" t="str">
             <v>KM034</v>
@@ -577,7 +601,7 @@
         </row>
         <row r="14">
           <cell r="C14" t="str">
-            <v>Phong cảnh Sông núi 02</v>
+            <v>Phong cảnh Sông núi</v>
           </cell>
           <cell r="L14" t="str">
             <v>KM036</v>
@@ -601,7 +625,7 @@
         </row>
         <row r="17">
           <cell r="C17" t="str">
-            <v>Phong cảnh Nhật Bản 02</v>
+            <v>Phong cảnh Nhật Bản</v>
           </cell>
           <cell r="L17" t="str">
             <v>KM039</v>
@@ -629,6 +653,86 @@
           </cell>
           <cell r="K20" t="str">
             <v>KM007</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21" t="str">
+            <v>Phong cảnh</v>
+          </cell>
+          <cell r="L21" t="str">
+            <v>KM088</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22" t="str">
+            <v>Phong cảnh</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>KM089</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>Thuyền và biển</v>
+          </cell>
+          <cell r="L23" t="str">
+            <v>KM090</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>Phong cảnh sân vườn</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>KM091</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25" t="str">
+            <v>Cảnh nhà cổ điển</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>KM092</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>Tranh cuộc sống đầy màu sắc</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>KM093</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27" t="str">
+            <v>Phong cảnh Nhật Bản</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>KM094</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Phong cảnh Nhật Bản</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>KM095</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>Tranh cuộc sống đầy màu sắc</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>KM096</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>Phong cảnh</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>KM104</v>
           </cell>
         </row>
       </sheetData>
@@ -661,7 +765,7 @@
         </row>
         <row r="4">
           <cell r="C4" t="str">
-            <v>Hoa 01</v>
+            <v>Hoa</v>
           </cell>
           <cell r="L4" t="str">
             <v>KM044</v>
@@ -669,7 +773,7 @@
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>Hoa hướng dương 01</v>
+            <v>Hoa hướng dương</v>
           </cell>
           <cell r="L5" t="str">
             <v>KM045</v>
@@ -685,7 +789,7 @@
         </row>
         <row r="7">
           <cell r="C7" t="str">
-            <v>Hoa Tuy Líp 01</v>
+            <v>Hoa Tuy Líp</v>
           </cell>
           <cell r="L7" t="str">
             <v>KM047</v>
@@ -693,7 +797,7 @@
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>Hoa hướng dương 02</v>
+            <v>Hoa hướng dương</v>
           </cell>
           <cell r="L8" t="str">
             <v>KM048</v>
@@ -717,7 +821,7 @@
         </row>
         <row r="11">
           <cell r="C11" t="str">
-            <v>Hoa Tuy Líp 02</v>
+            <v>Hoa Tuy Líp</v>
           </cell>
           <cell r="L11" t="str">
             <v>KM051</v>
@@ -725,7 +829,7 @@
         </row>
         <row r="12">
           <cell r="C12" t="str">
-            <v>Cánh đồng hoa Tuy Líp 03</v>
+            <v>Cánh đồng hoa Tuy Líp</v>
           </cell>
           <cell r="K12" t="str">
             <v>KM010</v>
@@ -733,7 +837,7 @@
         </row>
         <row r="13">
           <cell r="C13" t="str">
-            <v>Cánh đồng hoa Tuy Líp 04</v>
+            <v>Cánh đồng hoa Tuy Líp</v>
           </cell>
           <cell r="K13" t="str">
             <v>KM009</v>
@@ -741,7 +845,7 @@
         </row>
         <row r="14">
           <cell r="C14" t="str">
-            <v>Hoa hướng dương 03</v>
+            <v>Hoa hướng dương</v>
           </cell>
           <cell r="L14" t="str">
             <v>KM052</v>
@@ -749,17 +853,33 @@
         </row>
         <row r="15">
           <cell r="C15" t="str">
-            <v>Cánh đồng hoa Tuy Líp 05</v>
+            <v>Cánh đồng hoa Tuy Líp</v>
           </cell>
           <cell r="K15" t="str">
             <v>KM008</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Hoa</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>KM105</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>Hoa hướng dương</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>KM106</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
           <cell r="C3" t="str">
-            <v>Tranh tròn hoa sen 01</v>
+            <v>Tranh tròn hoa sen</v>
           </cell>
           <cell r="L3" t="str">
             <v>KM053</v>
@@ -767,7 +887,7 @@
         </row>
         <row r="4">
           <cell r="C4" t="str">
-            <v>Hoa sen trắng 01</v>
+            <v>Hoa sen trắng</v>
           </cell>
           <cell r="K4" t="str">
             <v>KM015</v>
@@ -775,10 +895,26 @@
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>Hoa sen 02</v>
+            <v>Hoa sen</v>
           </cell>
           <cell r="K5" t="str">
             <v>KM004</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Hoa sen vàng</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>KM101</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>Hoa sen vàng</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>KM102</v>
           </cell>
         </row>
       </sheetData>
@@ -861,7 +997,7 @@
       <sheetData sheetId="7">
         <row r="3">
           <cell r="C3" t="str">
-            <v>Phượng hoàng 01</v>
+            <v>Phượng hoàng</v>
           </cell>
           <cell r="L3" t="str">
             <v>KM062</v>
@@ -877,7 +1013,7 @@
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>Phượng hoàng 02</v>
+            <v>Phượng hoàng</v>
           </cell>
           <cell r="L5" t="str">
             <v>KM064</v>
@@ -893,7 +1029,7 @@
         </row>
         <row r="7">
           <cell r="C7" t="str">
-            <v>Cánh đồng hoa và chú cún 01</v>
+            <v>Cánh đồng hoa và chú cún</v>
           </cell>
           <cell r="L7" t="str">
             <v>KM066</v>
@@ -901,7 +1037,7 @@
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>Cánh đồng hoa và chú cún 02</v>
+            <v>Cánh đồng hoa và chú cún</v>
           </cell>
           <cell r="L8" t="str">
             <v>KM067</v>
@@ -917,7 +1053,7 @@
         </row>
         <row r="10">
           <cell r="C10" t="str">
-            <v>Cánh đồng hoa và chú cún 03</v>
+            <v>Cánh đồng hoa và chú cún</v>
           </cell>
           <cell r="L10" t="str">
             <v>KM069</v>
@@ -953,6 +1089,14 @@
           </cell>
           <cell r="K14" t="str">
             <v>KM005</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>Rồng</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>KM087</v>
           </cell>
         </row>
       </sheetData>
@@ -1056,7 +1200,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1067,6 +1211,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="chua"/>
+      <sheetName val="bep"/>
       <sheetName val="mater"/>
     </sheetNames>
     <sheetDataSet>
@@ -1089,6 +1234,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1359,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1603,7 +1749,7 @@
       </c>
       <c r="M3" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C3="","",'[1]hoa-sen'!$C3)</f>
-        <v>Tranh tròn hoa sen 01</v>
+        <v>Tranh tròn hoa sen</v>
       </c>
       <c r="N3" t="str">
         <f>IF('[1]hoa-sen'!$K3 = "", "", '[1]hoa-sen'!$K3)</f>
@@ -1639,7 +1785,7 @@
       </c>
       <c r="V3" s="1" t="str">
         <f>IF('[1]dong-vat'!$C3="","",'[1]dong-vat'!$C3)</f>
-        <v>Phượng hoàng 01</v>
+        <v>Phượng hoàng</v>
       </c>
       <c r="W3" t="str">
         <f>IF('[1]dong-vat'!$K3 = "", "", '[1]dong-vat'!$K3)</f>
@@ -1689,7 +1835,7 @@
     <row r="4" spans="1:33">
       <c r="A4" t="str">
         <f>IF([1]phat!$C4 = "", "", [1]phat!$C4)</f>
-        <v>Phật trên đài sen 01</v>
+        <v>Phật trên đài sen</v>
       </c>
       <c r="B4" t="str">
         <f>IF([1]phat!$K4 = "", "", [1]phat!$K4)</f>
@@ -1725,7 +1871,7 @@
       </c>
       <c r="J4" s="1" t="str">
         <f>IF([1]hoa!$C4="","",[1]hoa!$C4)</f>
-        <v>Hoa 01</v>
+        <v>Hoa</v>
       </c>
       <c r="K4" t="str">
         <f>IF([1]hoa!$K4 = "", "", [1]hoa!$K4)</f>
@@ -1737,7 +1883,7 @@
       </c>
       <c r="M4" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C4="","",'[1]hoa-sen'!$C4)</f>
-        <v>Hoa sen trắng 01</v>
+        <v>Hoa sen trắng</v>
       </c>
       <c r="N4" t="str">
         <f>IF('[1]hoa-sen'!$K4 = "", "", '[1]hoa-sen'!$K4)</f>
@@ -1823,7 +1969,7 @@
     <row r="5" spans="1:33">
       <c r="A5" t="str">
         <f>IF([1]phat!$C5 = "", "", [1]phat!$C5)</f>
-        <v>Phật 01</v>
+        <v>Phật</v>
       </c>
       <c r="B5" t="str">
         <f>IF([1]phat!$K5 = "", "", [1]phat!$K5)</f>
@@ -1859,7 +2005,7 @@
       </c>
       <c r="J5" s="1" t="str">
         <f>IF([1]hoa!$C5="","",[1]hoa!$C5)</f>
-        <v>Hoa hướng dương 01</v>
+        <v>Hoa hướng dương</v>
       </c>
       <c r="K5" t="str">
         <f>IF([1]hoa!$K5 = "", "", [1]hoa!$K5)</f>
@@ -1871,7 +2017,7 @@
       </c>
       <c r="M5" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C5="","",'[1]hoa-sen'!$C5)</f>
-        <v>Hoa sen 02</v>
+        <v>Hoa sen</v>
       </c>
       <c r="N5" t="str">
         <f>IF('[1]hoa-sen'!$K5 = "", "", '[1]hoa-sen'!$K5)</f>
@@ -1907,7 +2053,7 @@
       </c>
       <c r="V5" s="1" t="str">
         <f>IF('[1]dong-vat'!$C5="","",'[1]dong-vat'!$C5)</f>
-        <v>Phượng hoàng 02</v>
+        <v>Phượng hoàng</v>
       </c>
       <c r="W5" t="str">
         <f>IF('[1]dong-vat'!$K5 = "", "", '[1]dong-vat'!$K5)</f>
@@ -1957,7 +2103,7 @@
     <row r="6" spans="1:33">
       <c r="A6" t="str">
         <f>IF([1]phat!$C6 = "", "", [1]phat!$C6)</f>
-        <v>Phật (Lọ màu 5ml) 01</v>
+        <v>Phật (Lọ màu 5ml)</v>
       </c>
       <c r="B6" t="str">
         <f>IF([1]phat!$K6 = "", "", [1]phat!$K6)</f>
@@ -2005,7 +2151,7 @@
       </c>
       <c r="M6" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C6="","",'[1]hoa-sen'!$C6)</f>
-        <v/>
+        <v>Hoa sen vàng</v>
       </c>
       <c r="N6" t="str">
         <f>IF('[1]hoa-sen'!$K6 = "", "", '[1]hoa-sen'!$K6)</f>
@@ -2013,7 +2159,7 @@
       </c>
       <c r="O6" t="str">
         <f>IF('[1]hoa-sen'!$L6 = "", "", '[1]hoa-sen'!$L6)</f>
-        <v/>
+        <v>KM101</v>
       </c>
       <c r="P6" s="1" t="str">
         <f>IF('[1]tinh-yeu'!$C6="","",'[1]tinh-yeu'!$C6)</f>
@@ -2091,7 +2237,7 @@
     <row r="7" spans="1:33">
       <c r="A7" t="str">
         <f>IF([1]phat!$C7 = "", "", [1]phat!$C7)</f>
-        <v>Phật 02</v>
+        <v>Phật</v>
       </c>
       <c r="B7" t="str">
         <f>IF([1]phat!$K7 = "", "", [1]phat!$K7)</f>
@@ -2103,7 +2249,7 @@
       </c>
       <c r="D7" s="1" t="str">
         <f>IF('[1]phong-canh'!$C7="","",'[1]phong-canh'!$C7)</f>
-        <v>Phong cảnh 01</v>
+        <v>Phong cảnh</v>
       </c>
       <c r="E7" t="str">
         <f>IF('[1]phong-canh'!$K7 = "", "", '[1]phong-canh'!$K7)</f>
@@ -2127,7 +2273,7 @@
       </c>
       <c r="J7" s="1" t="str">
         <f>IF([1]hoa!$C7="","",[1]hoa!$C7)</f>
-        <v>Hoa Tuy Líp 01</v>
+        <v>Hoa Tuy Líp</v>
       </c>
       <c r="K7" t="str">
         <f>IF([1]hoa!$K7 = "", "", [1]hoa!$K7)</f>
@@ -2139,7 +2285,7 @@
       </c>
       <c r="M7" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C7="","",'[1]hoa-sen'!$C7)</f>
-        <v/>
+        <v>Hoa sen vàng</v>
       </c>
       <c r="N7" t="str">
         <f>IF('[1]hoa-sen'!$K7 = "", "", '[1]hoa-sen'!$K7)</f>
@@ -2147,7 +2293,7 @@
       </c>
       <c r="O7" t="str">
         <f>IF('[1]hoa-sen'!$L7 = "", "", '[1]hoa-sen'!$L7)</f>
-        <v/>
+        <v>KM102</v>
       </c>
       <c r="P7" s="1" t="str">
         <f>IF('[1]tinh-yeu'!$C7="","",'[1]tinh-yeu'!$C7)</f>
@@ -2175,7 +2321,7 @@
       </c>
       <c r="V7" s="1" t="str">
         <f>IF('[1]dong-vat'!$C7="","",'[1]dong-vat'!$C7)</f>
-        <v>Cánh đồng hoa và chú cún 01</v>
+        <v>Cánh đồng hoa và chú cún</v>
       </c>
       <c r="W7" t="str">
         <f>IF('[1]dong-vat'!$K7 = "", "", '[1]dong-vat'!$K7)</f>
@@ -2225,7 +2371,7 @@
     <row r="8" spans="1:33">
       <c r="A8" t="str">
         <f>IF([1]phat!$C8 = "", "", [1]phat!$C8)</f>
-        <v>Phật 03</v>
+        <v>Phật</v>
       </c>
       <c r="B8" t="str">
         <f>IF([1]phat!$K8 = "", "", [1]phat!$K8)</f>
@@ -2237,7 +2383,7 @@
       </c>
       <c r="D8" s="1" t="str">
         <f>IF('[1]phong-canh'!$C8="","",'[1]phong-canh'!$C8)</f>
-        <v>Phong cảnh 02</v>
+        <v>Phong cảnh</v>
       </c>
       <c r="E8" t="str">
         <f>IF('[1]phong-canh'!$K8 = "", "", '[1]phong-canh'!$K8)</f>
@@ -2261,7 +2407,7 @@
       </c>
       <c r="J8" s="1" t="str">
         <f>IF([1]hoa!$C8="","",[1]hoa!$C8)</f>
-        <v>Hoa hướng dương 02</v>
+        <v>Hoa hướng dương</v>
       </c>
       <c r="K8" t="str">
         <f>IF([1]hoa!$K8 = "", "", [1]hoa!$K8)</f>
@@ -2309,7 +2455,7 @@
       </c>
       <c r="V8" s="1" t="str">
         <f>IF('[1]dong-vat'!$C8="","",'[1]dong-vat'!$C8)</f>
-        <v>Cánh đồng hoa và chú cún 02</v>
+        <v>Cánh đồng hoa và chú cún</v>
       </c>
       <c r="W8" t="str">
         <f>IF('[1]dong-vat'!$K8 = "", "", '[1]dong-vat'!$K8)</f>
@@ -2359,7 +2505,7 @@
     <row r="9" spans="1:33">
       <c r="A9" t="str">
         <f>IF([1]phat!$C9 = "", "", [1]phat!$C9)</f>
-        <v>Phật (Lọ màu 5ml) 02</v>
+        <v>Phật (Lọ màu 5ml)</v>
       </c>
       <c r="B9" t="str">
         <f>IF([1]phat!$K9 = "", "", [1]phat!$K9)</f>
@@ -2371,7 +2517,7 @@
       </c>
       <c r="D9" s="1" t="str">
         <f>IF('[1]phong-canh'!$C9="","",'[1]phong-canh'!$C9)</f>
-        <v>Phong cảnh 03</v>
+        <v>Phong cảnh</v>
       </c>
       <c r="E9" t="str">
         <f>IF('[1]phong-canh'!$K9 = "", "", '[1]phong-canh'!$K9)</f>
@@ -2493,7 +2639,7 @@
     <row r="10" spans="1:33">
       <c r="A10" t="str">
         <f>IF([1]phat!$C10 = "", "", [1]phat!$C10)</f>
-        <v>Phật (Lọ màu 5ml) 03</v>
+        <v>Phật (Lọ màu 5ml)</v>
       </c>
       <c r="B10" t="str">
         <f>IF([1]phat!$K10 = "", "", [1]phat!$K10)</f>
@@ -2505,7 +2651,7 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>IF('[1]phong-canh'!$C10="","",'[1]phong-canh'!$C10)</f>
-        <v>Phong cảnh Nhật Bản 01</v>
+        <v>Phong cảnh Nhật Bản</v>
       </c>
       <c r="E10" t="str">
         <f>IF('[1]phong-canh'!$K10 = "", "", '[1]phong-canh'!$K10)</f>
@@ -2577,7 +2723,7 @@
       </c>
       <c r="V10" s="1" t="str">
         <f>IF('[1]dong-vat'!$C10="","",'[1]dong-vat'!$C10)</f>
-        <v>Cánh đồng hoa và chú cún 03</v>
+        <v>Cánh đồng hoa và chú cún</v>
       </c>
       <c r="W10" t="str">
         <f>IF('[1]dong-vat'!$K10 = "", "", '[1]dong-vat'!$K10)</f>
@@ -2627,7 +2773,7 @@
     <row r="11" spans="1:33">
       <c r="A11" t="str">
         <f>IF([1]phat!$C11 = "", "", [1]phat!$C11)</f>
-        <v>Phật 04</v>
+        <v>Phật</v>
       </c>
       <c r="B11" t="str">
         <f>IF([1]phat!$K11 = "", "", [1]phat!$K11)</f>
@@ -2639,7 +2785,7 @@
       </c>
       <c r="D11" s="1" t="str">
         <f>IF('[1]phong-canh'!$C11="","",'[1]phong-canh'!$C11)</f>
-        <v>Phong cảnh Sông núi 01</v>
+        <v>Phong cảnh Sông núi</v>
       </c>
       <c r="E11" t="str">
         <f>IF('[1]phong-canh'!$K11 = "", "", '[1]phong-canh'!$K11)</f>
@@ -2663,7 +2809,7 @@
       </c>
       <c r="J11" s="1" t="str">
         <f>IF([1]hoa!$C11="","",[1]hoa!$C11)</f>
-        <v>Hoa Tuy Líp 02</v>
+        <v>Hoa Tuy Líp</v>
       </c>
       <c r="K11" t="str">
         <f>IF([1]hoa!$K11 = "", "", [1]hoa!$K11)</f>
@@ -2761,7 +2907,7 @@
     <row r="12" spans="1:33">
       <c r="A12" t="str">
         <f>IF([1]phat!$C12 = "", "", [1]phat!$C12)</f>
-        <v>Phật trên đài sen 02</v>
+        <v>Phật trên đài sen</v>
       </c>
       <c r="B12" t="str">
         <f>IF([1]phat!$K12 = "", "", [1]phat!$K12)</f>
@@ -2773,7 +2919,7 @@
       </c>
       <c r="D12" s="1" t="str">
         <f>IF('[1]phong-canh'!$C12="","",'[1]phong-canh'!$C12)</f>
-        <v>Phong cảnh 04</v>
+        <v>Phong cảnh</v>
       </c>
       <c r="E12" t="str">
         <f>IF('[1]phong-canh'!$K12 = "", "", '[1]phong-canh'!$K12)</f>
@@ -2797,7 +2943,7 @@
       </c>
       <c r="J12" s="1" t="str">
         <f>IF([1]hoa!$C12="","",[1]hoa!$C12)</f>
-        <v>Cánh đồng hoa Tuy Líp 03</v>
+        <v>Cánh đồng hoa Tuy Líp</v>
       </c>
       <c r="K12" t="str">
         <f>IF([1]hoa!$K12 = "", "", [1]hoa!$K12)</f>
@@ -2895,7 +3041,7 @@
     <row r="13" spans="1:33">
       <c r="A13" t="str">
         <f>IF([1]phat!$C13 = "", "", [1]phat!$C13)</f>
-        <v>Phật 04</v>
+        <v>Phật</v>
       </c>
       <c r="B13" t="str">
         <f>IF([1]phat!$K13 = "", "", [1]phat!$K13)</f>
@@ -2931,7 +3077,7 @@
       </c>
       <c r="J13" s="1" t="str">
         <f>IF([1]hoa!$C13="","",[1]hoa!$C13)</f>
-        <v>Cánh đồng hoa Tuy Líp 04</v>
+        <v>Cánh đồng hoa Tuy Líp</v>
       </c>
       <c r="K13" t="str">
         <f>IF([1]hoa!$K13 = "", "", [1]hoa!$K13)</f>
@@ -3041,7 +3187,7 @@
       </c>
       <c r="D14" s="1" t="str">
         <f>IF('[1]phong-canh'!$C14="","",'[1]phong-canh'!$C14)</f>
-        <v>Phong cảnh Sông núi 02</v>
+        <v>Phong cảnh Sông núi</v>
       </c>
       <c r="E14" t="str">
         <f>IF('[1]phong-canh'!$K14 = "", "", '[1]phong-canh'!$K14)</f>
@@ -3065,7 +3211,7 @@
       </c>
       <c r="J14" s="1" t="str">
         <f>IF([1]hoa!$C14="","",[1]hoa!$C14)</f>
-        <v>Hoa hướng dương 03</v>
+        <v>Hoa hướng dương</v>
       </c>
       <c r="K14" t="str">
         <f>IF([1]hoa!$K14 = "", "", [1]hoa!$K14)</f>
@@ -3199,7 +3345,7 @@
       </c>
       <c r="J15" s="1" t="str">
         <f>IF([1]hoa!$C15="","",[1]hoa!$C15)</f>
-        <v>Cánh đồng hoa Tuy Líp 05</v>
+        <v>Cánh đồng hoa Tuy Líp</v>
       </c>
       <c r="K15" t="str">
         <f>IF([1]hoa!$K15 = "", "", [1]hoa!$K15)</f>
@@ -3247,7 +3393,7 @@
       </c>
       <c r="V15" s="1" t="str">
         <f>IF('[1]dong-vat'!$C15="","",'[1]dong-vat'!$C15)</f>
-        <v/>
+        <v>Rồng</v>
       </c>
       <c r="W15" t="str">
         <f>IF('[1]dong-vat'!$K15 = "", "", '[1]dong-vat'!$K15)</f>
@@ -3255,7 +3401,7 @@
       </c>
       <c r="X15" t="str">
         <f>IF('[1]dong-vat'!$L15 = "", "", '[1]dong-vat'!$L15)</f>
-        <v/>
+        <v>KM087</v>
       </c>
       <c r="Y15" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C15="","",'[1]hoat-hinh'!$C15)</f>
@@ -3297,7 +3443,7 @@
     <row r="16" spans="1:33">
       <c r="A16" t="str">
         <f>IF([1]phat!$C16 = "", "", [1]phat!$C16)</f>
-        <v/>
+        <v>Đức Phật</v>
       </c>
       <c r="B16" t="str">
         <f>IF([1]phat!$K16 = "", "", [1]phat!$K16)</f>
@@ -3305,7 +3451,7 @@
       </c>
       <c r="C16" s="1" t="str">
         <f>IF([1]phat!$L16="","",[1]phat!$L16)</f>
-        <v/>
+        <v>KM085</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>IF('[1]phong-canh'!$C16="","",'[1]phong-canh'!$C16)</f>
@@ -3333,7 +3479,7 @@
       </c>
       <c r="J16" s="1" t="str">
         <f>IF([1]hoa!$C16="","",[1]hoa!$C16)</f>
-        <v/>
+        <v>Hoa</v>
       </c>
       <c r="K16" t="str">
         <f>IF([1]hoa!$K16 = "", "", [1]hoa!$K16)</f>
@@ -3341,7 +3487,7 @@
       </c>
       <c r="L16" t="str">
         <f>IF([1]hoa!$L16 = "", "", [1]hoa!$L16)</f>
-        <v/>
+        <v>KM105</v>
       </c>
       <c r="M16" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C16="","",'[1]hoa-sen'!$C16)</f>
@@ -3431,7 +3577,7 @@
     <row r="17" spans="1:33">
       <c r="A17" t="str">
         <f>IF([1]phat!$C17 = "", "", [1]phat!$C17)</f>
-        <v/>
+        <v>Đức Phật</v>
       </c>
       <c r="B17" t="str">
         <f>IF([1]phat!$K17 = "", "", [1]phat!$K17)</f>
@@ -3439,11 +3585,11 @@
       </c>
       <c r="C17" s="1" t="str">
         <f>IF([1]phat!$L17="","",[1]phat!$L17)</f>
-        <v/>
+        <v>KM086</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>IF('[1]phong-canh'!$C17="","",'[1]phong-canh'!$C17)</f>
-        <v>Phong cảnh Nhật Bản 02</v>
+        <v>Phong cảnh Nhật Bản</v>
       </c>
       <c r="E17" t="str">
         <f>IF('[1]phong-canh'!$K17 = "", "", '[1]phong-canh'!$K17)</f>
@@ -3467,7 +3613,7 @@
       </c>
       <c r="J17" s="1" t="str">
         <f>IF([1]hoa!$C17="","",[1]hoa!$C17)</f>
-        <v/>
+        <v>Hoa hướng dương</v>
       </c>
       <c r="K17" t="str">
         <f>IF([1]hoa!$K17 = "", "", [1]hoa!$K17)</f>
@@ -3475,7 +3621,7 @@
       </c>
       <c r="L17" t="str">
         <f>IF([1]hoa!$L17 = "", "", [1]hoa!$L17)</f>
-        <v/>
+        <v>KM106</v>
       </c>
       <c r="M17" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C17="","",'[1]hoa-sen'!$C17)</f>
@@ -3565,7 +3711,7 @@
     <row r="18" spans="1:33">
       <c r="A18" t="str">
         <f>IF([1]phat!$C18 = "", "", [1]phat!$C18)</f>
-        <v/>
+        <v>Đức Phật</v>
       </c>
       <c r="B18" t="str">
         <f>IF([1]phat!$K18 = "", "", [1]phat!$K18)</f>
@@ -3573,7 +3719,7 @@
       </c>
       <c r="C18" s="1" t="str">
         <f>IF([1]phat!$L18="","",[1]phat!$L18)</f>
-        <v/>
+        <v>KM103</v>
       </c>
       <c r="D18" s="1" t="str">
         <f>IF('[1]phong-canh'!$C18="","",'[1]phong-canh'!$C18)</f>
@@ -3979,7 +4125,7 @@
       </c>
       <c r="D21" s="1" t="str">
         <f>IF('[1]phong-canh'!$C21="","",'[1]phong-canh'!$C21)</f>
-        <v/>
+        <v>Phong cảnh</v>
       </c>
       <c r="E21" t="str">
         <f>IF('[1]phong-canh'!$K21 = "", "", '[1]phong-canh'!$K21)</f>
@@ -3987,7 +4133,7 @@
       </c>
       <c r="F21" t="str">
         <f>IF('[1]phong-canh'!$L21 = "", "", '[1]phong-canh'!$L21)</f>
-        <v/>
+        <v>KM088</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>IF('[1]me-va-be'!$C21="","",'[1]me-va-be'!$C21)</f>
@@ -4113,7 +4259,7 @@
       </c>
       <c r="D22" s="1" t="str">
         <f>IF('[1]phong-canh'!$C22="","",'[1]phong-canh'!$C22)</f>
-        <v/>
+        <v>Phong cảnh</v>
       </c>
       <c r="E22" t="str">
         <f>IF('[1]phong-canh'!$K22 = "", "", '[1]phong-canh'!$K22)</f>
@@ -4121,7 +4267,7 @@
       </c>
       <c r="F22" t="str">
         <f>IF('[1]phong-canh'!$L22 = "", "", '[1]phong-canh'!$L22)</f>
-        <v/>
+        <v>KM089</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>IF('[1]me-va-be'!$C22="","",'[1]me-va-be'!$C22)</f>
@@ -4247,7 +4393,7 @@
       </c>
       <c r="D23" s="1" t="str">
         <f>IF('[1]phong-canh'!$C23="","",'[1]phong-canh'!$C23)</f>
-        <v/>
+        <v>Thuyền và biển</v>
       </c>
       <c r="E23" t="str">
         <f>IF('[1]phong-canh'!$K23 = "", "", '[1]phong-canh'!$K23)</f>
@@ -4255,7 +4401,7 @@
       </c>
       <c r="F23" t="str">
         <f>IF('[1]phong-canh'!$L23 = "", "", '[1]phong-canh'!$L23)</f>
-        <v/>
+        <v>KM090</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>IF('[1]me-va-be'!$C23="","",'[1]me-va-be'!$C23)</f>
@@ -4381,7 +4527,7 @@
       </c>
       <c r="D24" s="1" t="str">
         <f>IF('[1]phong-canh'!$C24="","",'[1]phong-canh'!$C24)</f>
-        <v/>
+        <v>Phong cảnh sân vườn</v>
       </c>
       <c r="E24" t="str">
         <f>IF('[1]phong-canh'!$K24 = "", "", '[1]phong-canh'!$K24)</f>
@@ -4389,7 +4535,7 @@
       </c>
       <c r="F24" t="str">
         <f>IF('[1]phong-canh'!$L24 = "", "", '[1]phong-canh'!$L24)</f>
-        <v/>
+        <v>KM091</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>IF('[1]me-va-be'!$C24="","",'[1]me-va-be'!$C24)</f>
@@ -4515,7 +4661,7 @@
       </c>
       <c r="D25" s="1" t="str">
         <f>IF('[1]phong-canh'!$C25="","",'[1]phong-canh'!$C25)</f>
-        <v/>
+        <v>Cảnh nhà cổ điển</v>
       </c>
       <c r="E25" t="str">
         <f>IF('[1]phong-canh'!$K25 = "", "", '[1]phong-canh'!$K25)</f>
@@ -4523,7 +4669,7 @@
       </c>
       <c r="F25" t="str">
         <f>IF('[1]phong-canh'!$L25 = "", "", '[1]phong-canh'!$L25)</f>
-        <v/>
+        <v>KM092</v>
       </c>
       <c r="G25" s="1" t="str">
         <f>IF('[1]me-va-be'!$C25="","",'[1]me-va-be'!$C25)</f>
@@ -4649,7 +4795,7 @@
       </c>
       <c r="D26" s="1" t="str">
         <f>IF('[1]phong-canh'!$C26="","",'[1]phong-canh'!$C26)</f>
-        <v/>
+        <v>Tranh cuộc sống đầy màu sắc</v>
       </c>
       <c r="E26" t="str">
         <f>IF('[1]phong-canh'!$K26 = "", "", '[1]phong-canh'!$K26)</f>
@@ -4657,7 +4803,7 @@
       </c>
       <c r="F26" t="str">
         <f>IF('[1]phong-canh'!$L26 = "", "", '[1]phong-canh'!$L26)</f>
-        <v/>
+        <v>KM093</v>
       </c>
       <c r="G26" s="1" t="str">
         <f>IF('[1]me-va-be'!$C26="","",'[1]me-va-be'!$C26)</f>
@@ -4783,7 +4929,7 @@
       </c>
       <c r="D27" s="1" t="str">
         <f>IF('[1]phong-canh'!$C27="","",'[1]phong-canh'!$C27)</f>
-        <v/>
+        <v>Phong cảnh Nhật Bản</v>
       </c>
       <c r="E27" t="str">
         <f>IF('[1]phong-canh'!$K27 = "", "", '[1]phong-canh'!$K27)</f>
@@ -4791,7 +4937,7 @@
       </c>
       <c r="F27" t="str">
         <f>IF('[1]phong-canh'!$L27 = "", "", '[1]phong-canh'!$L27)</f>
-        <v/>
+        <v>KM094</v>
       </c>
       <c r="G27" s="1" t="str">
         <f>IF('[1]me-va-be'!$C27="","",'[1]me-va-be'!$C27)</f>
@@ -4917,7 +5063,7 @@
       </c>
       <c r="D28" s="1" t="str">
         <f>IF('[1]phong-canh'!$C28="","",'[1]phong-canh'!$C28)</f>
-        <v/>
+        <v>Phong cảnh Nhật Bản</v>
       </c>
       <c r="E28" t="str">
         <f>IF('[1]phong-canh'!$K28 = "", "", '[1]phong-canh'!$K28)</f>
@@ -4925,7 +5071,7 @@
       </c>
       <c r="F28" t="str">
         <f>IF('[1]phong-canh'!$L28 = "", "", '[1]phong-canh'!$L28)</f>
-        <v/>
+        <v>KM095</v>
       </c>
       <c r="G28" s="1" t="str">
         <f>IF('[1]me-va-be'!$C28="","",'[1]me-va-be'!$C28)</f>
@@ -5051,7 +5197,7 @@
       </c>
       <c r="D29" s="1" t="str">
         <f>IF('[1]phong-canh'!$C29="","",'[1]phong-canh'!$C29)</f>
-        <v/>
+        <v>Tranh cuộc sống đầy màu sắc</v>
       </c>
       <c r="E29" t="str">
         <f>IF('[1]phong-canh'!$K29 = "", "", '[1]phong-canh'!$K29)</f>
@@ -5059,7 +5205,7 @@
       </c>
       <c r="F29" t="str">
         <f>IF('[1]phong-canh'!$L29 = "", "", '[1]phong-canh'!$L29)</f>
-        <v/>
+        <v>KM096</v>
       </c>
       <c r="G29" s="1" t="str">
         <f>IF('[1]me-va-be'!$C29="","",'[1]me-va-be'!$C29)</f>
@@ -5185,7 +5331,7 @@
       </c>
       <c r="D30" s="1" t="str">
         <f>IF('[1]phong-canh'!$C30="","",'[1]phong-canh'!$C30)</f>
-        <v/>
+        <v>Phong cảnh</v>
       </c>
       <c r="E30" t="str">
         <f>IF('[1]phong-canh'!$K30 = "", "", '[1]phong-canh'!$K30)</f>
@@ -5193,7 +5339,7 @@
       </c>
       <c r="F30" t="str">
         <f>IF('[1]phong-canh'!$L30 = "", "", '[1]phong-canh'!$L30)</f>
-        <v/>
+        <v>KM104</v>
       </c>
       <c r="G30" s="1" t="str">
         <f>IF('[1]me-va-be'!$C30="","",'[1]me-va-be'!$C30)</f>
@@ -14686,19 +14832,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:C100 E3:F100 H3:I100 N3:O100 Q3:R100 T3:U100 W3:X100 Z3:AA100 AC3:AD100 AF3:AG100 K3:L100">
+  <conditionalFormatting sqref="B3:C100 E3:F100 H3:I100 Q3:R100 T3:U100 W3:X100 Z3:AA100 AC3:AD100 AF3:AG100 K3:L100 N3:O100">
     <cfRule type="duplicateValues" dxfId="22" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B100">

--- a/data-excel/Kiem_tra.xlsx
+++ b/data-excel/Kiem_tra.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Tên</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>chua</t>
+  </si>
+  <si>
+    <t>bep</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,24 @@
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -399,7 +419,7 @@
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>Phật</v>
+            <v>Tranh Phật</v>
           </cell>
           <cell r="K5" t="str">
             <v>KM017</v>
@@ -415,7 +435,7 @@
         </row>
         <row r="7">
           <cell r="C7" t="str">
-            <v>Phật</v>
+            <v>Tranh Phật</v>
           </cell>
           <cell r="K7" t="str">
             <v>KM016</v>
@@ -423,7 +443,7 @@
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>Phật</v>
+            <v>Tranh Phật</v>
           </cell>
           <cell r="K8" t="str">
             <v>KM020</v>
@@ -447,7 +467,7 @@
         </row>
         <row r="11">
           <cell r="C11" t="str">
-            <v>Phật</v>
+            <v>Tranh Phật</v>
           </cell>
           <cell r="L11" t="str">
             <v>KM023</v>
@@ -463,7 +483,7 @@
         </row>
         <row r="13">
           <cell r="C13" t="str">
-            <v>Phật</v>
+            <v>Tranh Phật</v>
           </cell>
           <cell r="K13" t="str">
             <v>KM003</v>
@@ -735,6 +755,14 @@
             <v>KM104</v>
           </cell>
         </row>
+        <row r="31">
+          <cell r="C31" t="str">
+            <v>Piano</v>
+          </cell>
+          <cell r="L31" t="str">
+            <v>KM112</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="3">
@@ -875,6 +903,14 @@
             <v>KM106</v>
           </cell>
         </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>Hoa Lavender</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>KM109</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="3">
@@ -915,6 +951,14 @@
           </cell>
           <cell r="L7" t="str">
             <v>KM102</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>Hoa sen vàng</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>KM110</v>
           </cell>
         </row>
       </sheetData>
@@ -939,7 +983,7 @@
       <sheetData sheetId="6">
         <row r="3">
           <cell r="C3" t="str">
-            <v>Nàng thơ 01</v>
+            <v>Nàng thơ</v>
           </cell>
           <cell r="L3" t="str">
             <v>KM056</v>
@@ -947,7 +991,7 @@
         </row>
         <row r="4">
           <cell r="C4" t="str">
-            <v>Nàng thơ 02</v>
+            <v>Nàng thơ</v>
           </cell>
           <cell r="L4" t="str">
             <v>KM057</v>
@@ -955,7 +999,7 @@
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>Nàng thơ 03</v>
+            <v>Nàng thơ</v>
           </cell>
           <cell r="L5" t="str">
             <v>KM058</v>
@@ -971,7 +1015,7 @@
         </row>
         <row r="7">
           <cell r="C7" t="str">
-            <v>Nàng thơ 04</v>
+            <v>Nàng thơ</v>
           </cell>
           <cell r="L7" t="str">
             <v>KM060</v>
@@ -979,7 +1023,7 @@
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>Nàng thơ 05</v>
+            <v>Nàng thơ</v>
           </cell>
           <cell r="L8" t="str">
             <v>KM061</v>
@@ -991,6 +1035,22 @@
           </cell>
           <cell r="K9" t="str">
             <v>KM001</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>Nàng thơ</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>KM111</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>Nàng thơ</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>KM113</v>
           </cell>
         </row>
       </sheetData>
@@ -1099,6 +1159,22 @@
             <v>KM087</v>
           </cell>
         </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>Mèo đại vương</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>KM107</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>Mèo đại vương</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>KM108</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="3">
@@ -1111,7 +1187,7 @@
         </row>
         <row r="4">
           <cell r="C4" t="str">
-            <v>Vua hải tặc 01</v>
+            <v>Vua hải tặc</v>
           </cell>
           <cell r="L4" t="str">
             <v>KM073</v>
@@ -1119,7 +1195,7 @@
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>Vua hải tặc 02</v>
+            <v>Vua hải tặc</v>
           </cell>
           <cell r="L5" t="str">
             <v>KM074</v>
@@ -1127,7 +1203,7 @@
         </row>
         <row r="6">
           <cell r="C6" t="str">
-            <v>Vua hải tặc 03</v>
+            <v>Vua hải tặc</v>
           </cell>
           <cell r="L6" t="str">
             <v>KM075</v>
@@ -1151,7 +1227,7 @@
         </row>
         <row r="9">
           <cell r="C9" t="str">
-            <v>Vua hải tặc 04</v>
+            <v>Vua hải tặc</v>
           </cell>
           <cell r="L9" t="str">
             <v>KM078</v>
@@ -1159,7 +1235,7 @@
         </row>
         <row r="10">
           <cell r="C10" t="str">
-            <v>Vua hải tặc 05</v>
+            <v>Vua hải tặc</v>
           </cell>
           <cell r="L10" t="str">
             <v>KM079</v>
@@ -1167,7 +1243,7 @@
         </row>
         <row r="11">
           <cell r="C11" t="str">
-            <v>Vua hải tặc 06</v>
+            <v>Vua hải tặc</v>
           </cell>
           <cell r="L11" t="str">
             <v>KM080</v>
@@ -1200,7 +1276,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1233,7 +1309,28 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Bếp và món ăn</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Bếp và món ăn</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>Bếp và món ăn</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Bếp và món ăn</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
@@ -1503,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG100"/>
+  <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N100"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1538,9 +1635,10 @@
     <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="15.75">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1596,8 +1694,13 @@
       </c>
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
+      <c r="AH1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
     </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" ht="15.75">
+    <row r="2" spans="1:36" s="2" customFormat="1" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1697,8 +1800,17 @@
       <c r="AG2" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="AH2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:36">
       <c r="A3" t="str">
         <f>IF([1]phat!$C3 = "", "", [1]phat!$C3)</f>
         <v>Tay phật lá bồ đề</v>
@@ -1773,7 +1885,7 @@
       </c>
       <c r="S3" s="1" t="str">
         <f>IF('[1]nang-tho'!$C3="","",'[1]nang-tho'!$C3)</f>
-        <v>Nàng thơ 01</v>
+        <v>Nàng thơ</v>
       </c>
       <c r="T3" t="str">
         <f>IF('[1]nang-tho'!$K3 = "", "", '[1]nang-tho'!$K3)</f>
@@ -1831,8 +1943,12 @@
         <f>IF([2]chua!$L3 = "", "", [2]chua!$L3)</f>
         <v/>
       </c>
+      <c r="AH3" s="1" t="str">
+        <f>IF([2]bep!$C3="","",[2]bep!$C3)</f>
+        <v>Bếp và món ăn</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:36">
       <c r="A4" t="str">
         <f>IF([1]phat!$C4 = "", "", [1]phat!$C4)</f>
         <v>Phật trên đài sen</v>
@@ -1907,7 +2023,7 @@
       </c>
       <c r="S4" s="1" t="str">
         <f>IF('[1]nang-tho'!$C4="","",'[1]nang-tho'!$C4)</f>
-        <v>Nàng thơ 02</v>
+        <v>Nàng thơ</v>
       </c>
       <c r="T4" t="str">
         <f>IF('[1]nang-tho'!$K4 = "", "", '[1]nang-tho'!$K4)</f>
@@ -1931,7 +2047,7 @@
       </c>
       <c r="Y4" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C4="","",'[1]hoat-hinh'!$C4)</f>
-        <v>Vua hải tặc 01</v>
+        <v>Vua hải tặc</v>
       </c>
       <c r="Z4" t="str">
         <f>IF('[1]hoat-hinh'!$K4 = "", "", '[1]hoat-hinh'!$K4)</f>
@@ -1965,11 +2081,15 @@
         <f>IF([2]chua!$L4 = "", "", [2]chua!$L4)</f>
         <v>KM084</v>
       </c>
+      <c r="AH4" s="1" t="str">
+        <f>IF([2]bep!$C4="","",[2]bep!$C4)</f>
+        <v>Bếp và món ăn</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:36">
       <c r="A5" t="str">
         <f>IF([1]phat!$C5 = "", "", [1]phat!$C5)</f>
-        <v>Phật</v>
+        <v>Tranh Phật</v>
       </c>
       <c r="B5" t="str">
         <f>IF([1]phat!$K5 = "", "", [1]phat!$K5)</f>
@@ -2041,7 +2161,7 @@
       </c>
       <c r="S5" s="1" t="str">
         <f>IF('[1]nang-tho'!$C5="","",'[1]nang-tho'!$C5)</f>
-        <v>Nàng thơ 03</v>
+        <v>Nàng thơ</v>
       </c>
       <c r="T5" t="str">
         <f>IF('[1]nang-tho'!$K5 = "", "", '[1]nang-tho'!$K5)</f>
@@ -2065,7 +2185,7 @@
       </c>
       <c r="Y5" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C5="","",'[1]hoat-hinh'!$C5)</f>
-        <v>Vua hải tặc 02</v>
+        <v>Vua hải tặc</v>
       </c>
       <c r="Z5" t="str">
         <f>IF('[1]hoat-hinh'!$K5 = "", "", '[1]hoat-hinh'!$K5)</f>
@@ -2099,8 +2219,12 @@
         <f>IF([2]chua!$L5 = "", "", [2]chua!$L5)</f>
         <v/>
       </c>
+      <c r="AH5" s="1" t="str">
+        <f>IF([2]bep!$C5="","",[2]bep!$C5)</f>
+        <v>Bếp và món ăn</v>
+      </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:36">
       <c r="A6" t="str">
         <f>IF([1]phat!$C6 = "", "", [1]phat!$C6)</f>
         <v>Phật (Lọ màu 5ml)</v>
@@ -2199,7 +2323,7 @@
       </c>
       <c r="Y6" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C6="","",'[1]hoat-hinh'!$C6)</f>
-        <v>Vua hải tặc 03</v>
+        <v>Vua hải tặc</v>
       </c>
       <c r="Z6" t="str">
         <f>IF('[1]hoat-hinh'!$K6 = "", "", '[1]hoat-hinh'!$K6)</f>
@@ -2233,11 +2357,15 @@
         <f>IF([2]chua!$L6 = "", "", [2]chua!$L6)</f>
         <v/>
       </c>
+      <c r="AH6" s="1" t="str">
+        <f>IF([2]bep!$C6="","",[2]bep!$C6)</f>
+        <v>Bếp và món ăn</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:36">
       <c r="A7" t="str">
         <f>IF([1]phat!$C7 = "", "", [1]phat!$C7)</f>
-        <v>Phật</v>
+        <v>Tranh Phật</v>
       </c>
       <c r="B7" t="str">
         <f>IF([1]phat!$K7 = "", "", [1]phat!$K7)</f>
@@ -2309,7 +2437,7 @@
       </c>
       <c r="S7" s="1" t="str">
         <f>IF('[1]nang-tho'!$C7="","",'[1]nang-tho'!$C7)</f>
-        <v>Nàng thơ 04</v>
+        <v>Nàng thơ</v>
       </c>
       <c r="T7" t="str">
         <f>IF('[1]nang-tho'!$K7 = "", "", '[1]nang-tho'!$K7)</f>
@@ -2367,11 +2495,15 @@
         <f>IF([2]chua!$L7 = "", "", [2]chua!$L7)</f>
         <v/>
       </c>
+      <c r="AH7" s="1" t="str">
+        <f>IF([2]bep!$C7="","",[2]bep!$C7)</f>
+        <v/>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:36">
       <c r="A8" t="str">
         <f>IF([1]phat!$C8 = "", "", [1]phat!$C8)</f>
-        <v>Phật</v>
+        <v>Tranh Phật</v>
       </c>
       <c r="B8" t="str">
         <f>IF([1]phat!$K8 = "", "", [1]phat!$K8)</f>
@@ -2419,7 +2551,7 @@
       </c>
       <c r="M8" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C8="","",'[1]hoa-sen'!$C8)</f>
-        <v/>
+        <v>Hoa sen vàng</v>
       </c>
       <c r="N8" t="str">
         <f>IF('[1]hoa-sen'!$K8 = "", "", '[1]hoa-sen'!$K8)</f>
@@ -2427,7 +2559,7 @@
       </c>
       <c r="O8" t="str">
         <f>IF('[1]hoa-sen'!$L8 = "", "", '[1]hoa-sen'!$L8)</f>
-        <v/>
+        <v>KM110</v>
       </c>
       <c r="P8" s="1" t="str">
         <f>IF('[1]tinh-yeu'!$C8="","",'[1]tinh-yeu'!$C8)</f>
@@ -2443,7 +2575,7 @@
       </c>
       <c r="S8" s="1" t="str">
         <f>IF('[1]nang-tho'!$C8="","",'[1]nang-tho'!$C8)</f>
-        <v>Nàng thơ 05</v>
+        <v>Nàng thơ</v>
       </c>
       <c r="T8" t="str">
         <f>IF('[1]nang-tho'!$K8 = "", "", '[1]nang-tho'!$K8)</f>
@@ -2501,8 +2633,12 @@
         <f>IF([2]chua!$L8 = "", "", [2]chua!$L8)</f>
         <v/>
       </c>
+      <c r="AH8" s="1" t="str">
+        <f>IF([2]bep!$C8="","",[2]bep!$C8)</f>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:36">
       <c r="A9" t="str">
         <f>IF([1]phat!$C9 = "", "", [1]phat!$C9)</f>
         <v>Phật (Lọ màu 5ml)</v>
@@ -2601,7 +2737,7 @@
       </c>
       <c r="Y9" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C9="","",'[1]hoat-hinh'!$C9)</f>
-        <v>Vua hải tặc 04</v>
+        <v>Vua hải tặc</v>
       </c>
       <c r="Z9" t="str">
         <f>IF('[1]hoat-hinh'!$K9 = "", "", '[1]hoat-hinh'!$K9)</f>
@@ -2635,8 +2771,12 @@
         <f>IF([2]chua!$L9 = "", "", [2]chua!$L9)</f>
         <v/>
       </c>
+      <c r="AH9" s="1" t="str">
+        <f>IF([2]bep!$C9="","",[2]bep!$C9)</f>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:36">
       <c r="A10" t="str">
         <f>IF([1]phat!$C10 = "", "", [1]phat!$C10)</f>
         <v>Phật (Lọ màu 5ml)</v>
@@ -2711,7 +2851,7 @@
       </c>
       <c r="S10" s="1" t="str">
         <f>IF('[1]nang-tho'!$C10="","",'[1]nang-tho'!$C10)</f>
-        <v/>
+        <v>Nàng thơ</v>
       </c>
       <c r="T10" t="str">
         <f>IF('[1]nang-tho'!$K10 = "", "", '[1]nang-tho'!$K10)</f>
@@ -2719,7 +2859,7 @@
       </c>
       <c r="U10" t="str">
         <f>IF('[1]nang-tho'!$L10 = "", "", '[1]nang-tho'!$L10)</f>
-        <v/>
+        <v>KM111</v>
       </c>
       <c r="V10" s="1" t="str">
         <f>IF('[1]dong-vat'!$C10="","",'[1]dong-vat'!$C10)</f>
@@ -2735,7 +2875,7 @@
       </c>
       <c r="Y10" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C10="","",'[1]hoat-hinh'!$C10)</f>
-        <v>Vua hải tặc 05</v>
+        <v>Vua hải tặc</v>
       </c>
       <c r="Z10" t="str">
         <f>IF('[1]hoat-hinh'!$K10 = "", "", '[1]hoat-hinh'!$K10)</f>
@@ -2769,11 +2909,15 @@
         <f>IF([2]chua!$L10 = "", "", [2]chua!$L10)</f>
         <v/>
       </c>
+      <c r="AH10" s="1" t="str">
+        <f>IF([2]bep!$C10="","",[2]bep!$C10)</f>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:36">
       <c r="A11" t="str">
         <f>IF([1]phat!$C11 = "", "", [1]phat!$C11)</f>
-        <v>Phật</v>
+        <v>Tranh Phật</v>
       </c>
       <c r="B11" t="str">
         <f>IF([1]phat!$K11 = "", "", [1]phat!$K11)</f>
@@ -2845,7 +2989,7 @@
       </c>
       <c r="S11" s="1" t="str">
         <f>IF('[1]nang-tho'!$C11="","",'[1]nang-tho'!$C11)</f>
-        <v/>
+        <v>Nàng thơ</v>
       </c>
       <c r="T11" t="str">
         <f>IF('[1]nang-tho'!$K11 = "", "", '[1]nang-tho'!$K11)</f>
@@ -2853,7 +2997,7 @@
       </c>
       <c r="U11" t="str">
         <f>IF('[1]nang-tho'!$L11 = "", "", '[1]nang-tho'!$L11)</f>
-        <v/>
+        <v>KM113</v>
       </c>
       <c r="V11" s="1" t="str">
         <f>IF('[1]dong-vat'!$C11="","",'[1]dong-vat'!$C11)</f>
@@ -2869,7 +3013,7 @@
       </c>
       <c r="Y11" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C11="","",'[1]hoat-hinh'!$C11)</f>
-        <v>Vua hải tặc 06</v>
+        <v>Vua hải tặc</v>
       </c>
       <c r="Z11" t="str">
         <f>IF('[1]hoat-hinh'!$K11 = "", "", '[1]hoat-hinh'!$K11)</f>
@@ -2903,8 +3047,12 @@
         <f>IF([2]chua!$L11 = "", "", [2]chua!$L11)</f>
         <v/>
       </c>
+      <c r="AH11" s="1" t="str">
+        <f>IF([2]bep!$C11="","",[2]bep!$C11)</f>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:36">
       <c r="A12" t="str">
         <f>IF([1]phat!$C12 = "", "", [1]phat!$C12)</f>
         <v>Phật trên đài sen</v>
@@ -3037,11 +3185,15 @@
         <f>IF([2]chua!$L12 = "", "", [2]chua!$L12)</f>
         <v/>
       </c>
+      <c r="AH12" s="1" t="str">
+        <f>IF([2]bep!$C12="","",[2]bep!$C12)</f>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:36">
       <c r="A13" t="str">
         <f>IF([1]phat!$C13 = "", "", [1]phat!$C13)</f>
-        <v>Phật</v>
+        <v>Tranh Phật</v>
       </c>
       <c r="B13" t="str">
         <f>IF([1]phat!$K13 = "", "", [1]phat!$K13)</f>
@@ -3171,8 +3323,12 @@
         <f>IF([2]chua!$L13 = "", "", [2]chua!$L13)</f>
         <v/>
       </c>
+      <c r="AH13" s="1" t="str">
+        <f>IF([2]bep!$C13="","",[2]bep!$C13)</f>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:36">
       <c r="A14" t="str">
         <f>IF([1]phat!$C14 = "", "", [1]phat!$C14)</f>
         <v>Quan Thế Âm Bồ Tát</v>
@@ -3305,8 +3461,12 @@
         <f>IF([2]chua!$L14 = "", "", [2]chua!$L14)</f>
         <v/>
       </c>
+      <c r="AH14" s="1" t="str">
+        <f>IF([2]bep!$C14="","",[2]bep!$C14)</f>
+        <v/>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:36">
       <c r="A15" t="str">
         <f>IF([1]phat!$C15 = "", "", [1]phat!$C15)</f>
         <v>Phật vạn hoa</v>
@@ -3439,8 +3599,12 @@
         <f>IF([2]chua!$L15 = "", "", [2]chua!$L15)</f>
         <v/>
       </c>
+      <c r="AH15" s="1" t="str">
+        <f>IF([2]bep!$C15="","",[2]bep!$C15)</f>
+        <v/>
+      </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:36">
       <c r="A16" t="str">
         <f>IF([1]phat!$C16 = "", "", [1]phat!$C16)</f>
         <v>Đức Phật</v>
@@ -3527,7 +3691,7 @@
       </c>
       <c r="V16" s="1" t="str">
         <f>IF('[1]dong-vat'!$C16="","",'[1]dong-vat'!$C16)</f>
-        <v/>
+        <v>Mèo đại vương</v>
       </c>
       <c r="W16" t="str">
         <f>IF('[1]dong-vat'!$K16 = "", "", '[1]dong-vat'!$K16)</f>
@@ -3535,7 +3699,7 @@
       </c>
       <c r="X16" t="str">
         <f>IF('[1]dong-vat'!$L16 = "", "", '[1]dong-vat'!$L16)</f>
-        <v/>
+        <v>KM107</v>
       </c>
       <c r="Y16" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C16="","",'[1]hoat-hinh'!$C16)</f>
@@ -3573,8 +3737,12 @@
         <f>IF([2]chua!$L16 = "", "", [2]chua!$L16)</f>
         <v/>
       </c>
+      <c r="AH16" s="1" t="str">
+        <f>IF([2]bep!$C16="","",[2]bep!$C16)</f>
+        <v/>
+      </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:34">
       <c r="A17" t="str">
         <f>IF([1]phat!$C17 = "", "", [1]phat!$C17)</f>
         <v>Đức Phật</v>
@@ -3661,7 +3829,7 @@
       </c>
       <c r="V17" s="1" t="str">
         <f>IF('[1]dong-vat'!$C17="","",'[1]dong-vat'!$C17)</f>
-        <v/>
+        <v>Mèo đại vương</v>
       </c>
       <c r="W17" t="str">
         <f>IF('[1]dong-vat'!$K17 = "", "", '[1]dong-vat'!$K17)</f>
@@ -3669,7 +3837,7 @@
       </c>
       <c r="X17" t="str">
         <f>IF('[1]dong-vat'!$L17 = "", "", '[1]dong-vat'!$L17)</f>
-        <v/>
+        <v>KM108</v>
       </c>
       <c r="Y17" s="1" t="str">
         <f>IF('[1]hoat-hinh'!$C17="","",'[1]hoat-hinh'!$C17)</f>
@@ -3707,8 +3875,12 @@
         <f>IF([2]chua!$L17 = "", "", [2]chua!$L17)</f>
         <v/>
       </c>
+      <c r="AH17" s="1" t="str">
+        <f>IF([2]bep!$C17="","",[2]bep!$C17)</f>
+        <v/>
+      </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:34">
       <c r="A18" t="str">
         <f>IF([1]phat!$C18 = "", "", [1]phat!$C18)</f>
         <v>Đức Phật</v>
@@ -3747,7 +3919,7 @@
       </c>
       <c r="J18" s="1" t="str">
         <f>IF([1]hoa!$C18="","",[1]hoa!$C18)</f>
-        <v/>
+        <v>Hoa Lavender</v>
       </c>
       <c r="K18" t="str">
         <f>IF([1]hoa!$K18 = "", "", [1]hoa!$K18)</f>
@@ -3755,7 +3927,7 @@
       </c>
       <c r="L18" t="str">
         <f>IF([1]hoa!$L18 = "", "", [1]hoa!$L18)</f>
-        <v/>
+        <v>KM109</v>
       </c>
       <c r="M18" s="1" t="str">
         <f>IF('[1]hoa-sen'!$C18="","",'[1]hoa-sen'!$C18)</f>
@@ -3841,8 +4013,12 @@
         <f>IF([2]chua!$L18 = "", "", [2]chua!$L18)</f>
         <v/>
       </c>
+      <c r="AH18" s="1" t="str">
+        <f>IF([2]bep!$C18="","",[2]bep!$C18)</f>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:34">
       <c r="A19" t="str">
         <f>IF([1]phat!$C19 = "", "", [1]phat!$C19)</f>
         <v/>
@@ -3975,8 +4151,12 @@
         <f>IF([2]chua!$L19 = "", "", [2]chua!$L19)</f>
         <v/>
       </c>
+      <c r="AH19" s="1" t="str">
+        <f>IF([2]bep!$C19="","",[2]bep!$C19)</f>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:34">
       <c r="A20" t="str">
         <f>IF([1]phat!$C20 = "", "", [1]phat!$C20)</f>
         <v/>
@@ -4109,8 +4289,12 @@
         <f>IF([2]chua!$L20 = "", "", [2]chua!$L20)</f>
         <v/>
       </c>
+      <c r="AH20" s="1" t="str">
+        <f>IF([2]bep!$C20="","",[2]bep!$C20)</f>
+        <v/>
+      </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:34">
       <c r="A21" t="str">
         <f>IF([1]phat!$C21 = "", "", [1]phat!$C21)</f>
         <v/>
@@ -4243,8 +4427,12 @@
         <f>IF([2]chua!$L21 = "", "", [2]chua!$L21)</f>
         <v/>
       </c>
+      <c r="AH21" s="1" t="str">
+        <f>IF([2]bep!$C21="","",[2]bep!$C21)</f>
+        <v/>
+      </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:34">
       <c r="A22" t="str">
         <f>IF([1]phat!$C22 = "", "", [1]phat!$C22)</f>
         <v/>
@@ -4377,8 +4565,12 @@
         <f>IF([2]chua!$L22 = "", "", [2]chua!$L22)</f>
         <v/>
       </c>
+      <c r="AH22" s="1" t="str">
+        <f>IF([2]bep!$C22="","",[2]bep!$C22)</f>
+        <v/>
+      </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:34">
       <c r="A23" t="str">
         <f>IF([1]phat!$C23 = "", "", [1]phat!$C23)</f>
         <v/>
@@ -4511,8 +4703,12 @@
         <f>IF([2]chua!$L23 = "", "", [2]chua!$L23)</f>
         <v/>
       </c>
+      <c r="AH23" s="1" t="str">
+        <f>IF([2]bep!$C23="","",[2]bep!$C23)</f>
+        <v/>
+      </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:34">
       <c r="A24" t="str">
         <f>IF([1]phat!$C24 = "", "", [1]phat!$C24)</f>
         <v/>
@@ -4645,8 +4841,12 @@
         <f>IF([2]chua!$L24 = "", "", [2]chua!$L24)</f>
         <v/>
       </c>
+      <c r="AH24" s="1" t="str">
+        <f>IF([2]bep!$C24="","",[2]bep!$C24)</f>
+        <v/>
+      </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:34">
       <c r="A25" t="str">
         <f>IF([1]phat!$C25 = "", "", [1]phat!$C25)</f>
         <v/>
@@ -4779,8 +4979,12 @@
         <f>IF([2]chua!$L25 = "", "", [2]chua!$L25)</f>
         <v/>
       </c>
+      <c r="AH25" s="1" t="str">
+        <f>IF([2]bep!$C25="","",[2]bep!$C25)</f>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:34">
       <c r="A26" t="str">
         <f>IF([1]phat!$C26 = "", "", [1]phat!$C26)</f>
         <v/>
@@ -4913,8 +5117,12 @@
         <f>IF([2]chua!$L26 = "", "", [2]chua!$L26)</f>
         <v/>
       </c>
+      <c r="AH26" s="1" t="str">
+        <f>IF([2]bep!$C26="","",[2]bep!$C26)</f>
+        <v/>
+      </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:34">
       <c r="A27" t="str">
         <f>IF([1]phat!$C27 = "", "", [1]phat!$C27)</f>
         <v/>
@@ -5047,8 +5255,12 @@
         <f>IF([2]chua!$L27 = "", "", [2]chua!$L27)</f>
         <v/>
       </c>
+      <c r="AH27" s="1" t="str">
+        <f>IF([2]bep!$C27="","",[2]bep!$C27)</f>
+        <v/>
+      </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:34">
       <c r="A28" t="str">
         <f>IF([1]phat!$C28 = "", "", [1]phat!$C28)</f>
         <v/>
@@ -5181,8 +5393,12 @@
         <f>IF([2]chua!$L28 = "", "", [2]chua!$L28)</f>
         <v/>
       </c>
+      <c r="AH28" s="1" t="str">
+        <f>IF([2]bep!$C28="","",[2]bep!$C28)</f>
+        <v/>
+      </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:34">
       <c r="A29" t="str">
         <f>IF([1]phat!$C29 = "", "", [1]phat!$C29)</f>
         <v/>
@@ -5315,8 +5531,12 @@
         <f>IF([2]chua!$L29 = "", "", [2]chua!$L29)</f>
         <v/>
       </c>
+      <c r="AH29" s="1" t="str">
+        <f>IF([2]bep!$C29="","",[2]bep!$C29)</f>
+        <v/>
+      </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:34">
       <c r="A30" t="str">
         <f>IF([1]phat!$C30 = "", "", [1]phat!$C30)</f>
         <v/>
@@ -5449,8 +5669,12 @@
         <f>IF([2]chua!$L30 = "", "", [2]chua!$L30)</f>
         <v/>
       </c>
+      <c r="AH30" s="1" t="str">
+        <f>IF([2]bep!$C30="","",[2]bep!$C30)</f>
+        <v/>
+      </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:34">
       <c r="A31" t="str">
         <f>IF([1]phat!$C31 = "", "", [1]phat!$C31)</f>
         <v/>
@@ -5465,7 +5689,7 @@
       </c>
       <c r="D31" s="1" t="str">
         <f>IF('[1]phong-canh'!$C31="","",'[1]phong-canh'!$C31)</f>
-        <v/>
+        <v>Piano</v>
       </c>
       <c r="E31" t="str">
         <f>IF('[1]phong-canh'!$K31 = "", "", '[1]phong-canh'!$K31)</f>
@@ -5473,7 +5697,7 @@
       </c>
       <c r="F31" t="str">
         <f>IF('[1]phong-canh'!$L31 = "", "", '[1]phong-canh'!$L31)</f>
-        <v/>
+        <v>KM112</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IF('[1]me-va-be'!$C31="","",'[1]me-va-be'!$C31)</f>
@@ -5583,8 +5807,12 @@
         <f>IF([2]chua!$L31 = "", "", [2]chua!$L31)</f>
         <v/>
       </c>
+      <c r="AH31" s="1" t="str">
+        <f>IF([2]bep!$C31="","",[2]bep!$C31)</f>
+        <v/>
+      </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:34">
       <c r="A32" t="str">
         <f>IF([1]phat!$C32 = "", "", [1]phat!$C32)</f>
         <v/>
@@ -5717,8 +5945,12 @@
         <f>IF([2]chua!$L32 = "", "", [2]chua!$L32)</f>
         <v/>
       </c>
+      <c r="AH32" s="1" t="str">
+        <f>IF([2]bep!$C32="","",[2]bep!$C32)</f>
+        <v/>
+      </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:34">
       <c r="A33" t="str">
         <f>IF([1]phat!$C33 = "", "", [1]phat!$C33)</f>
         <v/>
@@ -5851,8 +6083,12 @@
         <f>IF([2]chua!$L33 = "", "", [2]chua!$L33)</f>
         <v/>
       </c>
+      <c r="AH33" s="1" t="str">
+        <f>IF([2]bep!$C33="","",[2]bep!$C33)</f>
+        <v/>
+      </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:34">
       <c r="A34" t="str">
         <f>IF([1]phat!$C34 = "", "", [1]phat!$C34)</f>
         <v/>
@@ -5985,8 +6221,12 @@
         <f>IF([2]chua!$L34 = "", "", [2]chua!$L34)</f>
         <v/>
       </c>
+      <c r="AH34" s="1" t="str">
+        <f>IF([2]bep!$C34="","",[2]bep!$C34)</f>
+        <v/>
+      </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:34">
       <c r="A35" t="str">
         <f>IF([1]phat!$C35 = "", "", [1]phat!$C35)</f>
         <v/>
@@ -6119,8 +6359,12 @@
         <f>IF([2]chua!$L35 = "", "", [2]chua!$L35)</f>
         <v/>
       </c>
+      <c r="AH35" s="1" t="str">
+        <f>IF([2]bep!$C35="","",[2]bep!$C35)</f>
+        <v/>
+      </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:34">
       <c r="A36" t="str">
         <f>IF([1]phat!$C36 = "", "", [1]phat!$C36)</f>
         <v/>
@@ -6253,8 +6497,12 @@
         <f>IF([2]chua!$L36 = "", "", [2]chua!$L36)</f>
         <v/>
       </c>
+      <c r="AH36" s="1" t="str">
+        <f>IF([2]bep!$C36="","",[2]bep!$C36)</f>
+        <v/>
+      </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:34">
       <c r="A37" t="str">
         <f>IF([1]phat!$C37 = "", "", [1]phat!$C37)</f>
         <v/>
@@ -6387,8 +6635,12 @@
         <f>IF([2]chua!$L37 = "", "", [2]chua!$L37)</f>
         <v/>
       </c>
+      <c r="AH37" s="1" t="str">
+        <f>IF([2]bep!$C37="","",[2]bep!$C37)</f>
+        <v/>
+      </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:34">
       <c r="A38" t="str">
         <f>IF([1]phat!$C38 = "", "", [1]phat!$C38)</f>
         <v/>
@@ -6521,8 +6773,12 @@
         <f>IF([2]chua!$L38 = "", "", [2]chua!$L38)</f>
         <v/>
       </c>
+      <c r="AH38" s="1" t="str">
+        <f>IF([2]bep!$C38="","",[2]bep!$C38)</f>
+        <v/>
+      </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:34">
       <c r="A39" t="str">
         <f>IF([1]phat!$C39 = "", "", [1]phat!$C39)</f>
         <v/>
@@ -6655,8 +6911,12 @@
         <f>IF([2]chua!$L39 = "", "", [2]chua!$L39)</f>
         <v/>
       </c>
+      <c r="AH39" s="1" t="str">
+        <f>IF([2]bep!$C39="","",[2]bep!$C39)</f>
+        <v/>
+      </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:34">
       <c r="A40" t="str">
         <f>IF([1]phat!$C40 = "", "", [1]phat!$C40)</f>
         <v/>
@@ -6789,8 +7049,12 @@
         <f>IF([2]chua!$L40 = "", "", [2]chua!$L40)</f>
         <v/>
       </c>
+      <c r="AH40" s="1" t="str">
+        <f>IF([2]bep!$C40="","",[2]bep!$C40)</f>
+        <v/>
+      </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:34">
       <c r="A41" t="str">
         <f>IF([1]phat!$C41 = "", "", [1]phat!$C41)</f>
         <v/>
@@ -6923,8 +7187,12 @@
         <f>IF([2]chua!$L41 = "", "", [2]chua!$L41)</f>
         <v/>
       </c>
+      <c r="AH41" s="1" t="str">
+        <f>IF([2]bep!$C41="","",[2]bep!$C41)</f>
+        <v/>
+      </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:34">
       <c r="A42" t="str">
         <f>IF([1]phat!$C42 = "", "", [1]phat!$C42)</f>
         <v/>
@@ -7057,8 +7325,12 @@
         <f>IF([2]chua!$L42 = "", "", [2]chua!$L42)</f>
         <v/>
       </c>
+      <c r="AH42" s="1" t="str">
+        <f>IF([2]bep!$C42="","",[2]bep!$C42)</f>
+        <v/>
+      </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:34">
       <c r="A43" t="str">
         <f>IF([1]phat!$C43 = "", "", [1]phat!$C43)</f>
         <v/>
@@ -7191,8 +7463,12 @@
         <f>IF([2]chua!$L43 = "", "", [2]chua!$L43)</f>
         <v/>
       </c>
+      <c r="AH43" s="1" t="str">
+        <f>IF([2]bep!$C43="","",[2]bep!$C43)</f>
+        <v/>
+      </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:34">
       <c r="A44" t="str">
         <f>IF([1]phat!$C44 = "", "", [1]phat!$C44)</f>
         <v/>
@@ -7325,8 +7601,12 @@
         <f>IF([2]chua!$L44 = "", "", [2]chua!$L44)</f>
         <v/>
       </c>
+      <c r="AH44" s="1" t="str">
+        <f>IF([2]bep!$C44="","",[2]bep!$C44)</f>
+        <v/>
+      </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:34">
       <c r="A45" t="str">
         <f>IF([1]phat!$C45 = "", "", [1]phat!$C45)</f>
         <v/>
@@ -7459,8 +7739,12 @@
         <f>IF([2]chua!$L45 = "", "", [2]chua!$L45)</f>
         <v/>
       </c>
+      <c r="AH45" s="1" t="str">
+        <f>IF([2]bep!$C45="","",[2]bep!$C45)</f>
+        <v/>
+      </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:34">
       <c r="A46" t="str">
         <f>IF([1]phat!$C46 = "", "", [1]phat!$C46)</f>
         <v/>
@@ -7593,8 +7877,12 @@
         <f>IF([2]chua!$L46 = "", "", [2]chua!$L46)</f>
         <v/>
       </c>
+      <c r="AH46" s="1" t="str">
+        <f>IF([2]bep!$C46="","",[2]bep!$C46)</f>
+        <v/>
+      </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:34">
       <c r="A47" t="str">
         <f>IF([1]phat!$C47 = "", "", [1]phat!$C47)</f>
         <v/>
@@ -7727,8 +8015,12 @@
         <f>IF([2]chua!$L47 = "", "", [2]chua!$L47)</f>
         <v/>
       </c>
+      <c r="AH47" s="1" t="str">
+        <f>IF([2]bep!$C47="","",[2]bep!$C47)</f>
+        <v/>
+      </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:34">
       <c r="A48" t="str">
         <f>IF([1]phat!$C48 = "", "", [1]phat!$C48)</f>
         <v/>
@@ -7861,8 +8153,12 @@
         <f>IF([2]chua!$L48 = "", "", [2]chua!$L48)</f>
         <v/>
       </c>
+      <c r="AH48" s="1" t="str">
+        <f>IF([2]bep!$C48="","",[2]bep!$C48)</f>
+        <v/>
+      </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:34">
       <c r="A49" t="str">
         <f>IF([1]phat!$C49 = "", "", [1]phat!$C49)</f>
         <v/>
@@ -7995,8 +8291,12 @@
         <f>IF([2]chua!$L49 = "", "", [2]chua!$L49)</f>
         <v/>
       </c>
+      <c r="AH49" s="1" t="str">
+        <f>IF([2]bep!$C49="","",[2]bep!$C49)</f>
+        <v/>
+      </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:34">
       <c r="A50" t="str">
         <f>IF([1]phat!$C50 = "", "", [1]phat!$C50)</f>
         <v/>
@@ -8129,8 +8429,12 @@
         <f>IF([2]chua!$L50 = "", "", [2]chua!$L50)</f>
         <v/>
       </c>
+      <c r="AH50" s="1" t="str">
+        <f>IF([2]bep!$C50="","",[2]bep!$C50)</f>
+        <v/>
+      </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:34">
       <c r="A51" t="str">
         <f>IF([1]phat!$C51 = "", "", [1]phat!$C51)</f>
         <v/>
@@ -8263,8 +8567,12 @@
         <f>IF([2]chua!$L51 = "", "", [2]chua!$L51)</f>
         <v/>
       </c>
+      <c r="AH51" s="1" t="str">
+        <f>IF([2]bep!$C51="","",[2]bep!$C51)</f>
+        <v/>
+      </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:34">
       <c r="A52" t="str">
         <f>IF([1]phat!$C52 = "", "", [1]phat!$C52)</f>
         <v/>
@@ -8397,8 +8705,12 @@
         <f>IF([2]chua!$L52 = "", "", [2]chua!$L52)</f>
         <v/>
       </c>
+      <c r="AH52" s="1" t="str">
+        <f>IF([2]bep!$C52="","",[2]bep!$C52)</f>
+        <v/>
+      </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:34">
       <c r="A53" t="str">
         <f>IF([1]phat!$C53 = "", "", [1]phat!$C53)</f>
         <v/>
@@ -8531,8 +8843,12 @@
         <f>IF([2]chua!$L53 = "", "", [2]chua!$L53)</f>
         <v/>
       </c>
+      <c r="AH53" s="1" t="str">
+        <f>IF([2]bep!$C53="","",[2]bep!$C53)</f>
+        <v/>
+      </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:34">
       <c r="A54" t="str">
         <f>IF([1]phat!$C54 = "", "", [1]phat!$C54)</f>
         <v/>
@@ -8665,8 +8981,12 @@
         <f>IF([2]chua!$L54 = "", "", [2]chua!$L54)</f>
         <v/>
       </c>
+      <c r="AH54" s="1" t="str">
+        <f>IF([2]bep!$C54="","",[2]bep!$C54)</f>
+        <v/>
+      </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:34">
       <c r="A55" t="str">
         <f>IF([1]phat!$C55 = "", "", [1]phat!$C55)</f>
         <v/>
@@ -8799,8 +9119,12 @@
         <f>IF([2]chua!$L55 = "", "", [2]chua!$L55)</f>
         <v/>
       </c>
+      <c r="AH55" s="1" t="str">
+        <f>IF([2]bep!$C55="","",[2]bep!$C55)</f>
+        <v/>
+      </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:34">
       <c r="A56" t="str">
         <f>IF([1]phat!$C56 = "", "", [1]phat!$C56)</f>
         <v/>
@@ -8933,8 +9257,12 @@
         <f>IF([2]chua!$L56 = "", "", [2]chua!$L56)</f>
         <v/>
       </c>
+      <c r="AH56" s="1" t="str">
+        <f>IF([2]bep!$C56="","",[2]bep!$C56)</f>
+        <v/>
+      </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:34">
       <c r="A57" t="str">
         <f>IF([1]phat!$C57 = "", "", [1]phat!$C57)</f>
         <v/>
@@ -9067,8 +9395,12 @@
         <f>IF([2]chua!$L57 = "", "", [2]chua!$L57)</f>
         <v/>
       </c>
+      <c r="AH57" s="1" t="str">
+        <f>IF([2]bep!$C57="","",[2]bep!$C57)</f>
+        <v/>
+      </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:34">
       <c r="A58" t="str">
         <f>IF([1]phat!$C58 = "", "", [1]phat!$C58)</f>
         <v/>
@@ -9201,8 +9533,12 @@
         <f>IF([2]chua!$L58 = "", "", [2]chua!$L58)</f>
         <v/>
       </c>
+      <c r="AH58" s="1" t="str">
+        <f>IF([2]bep!$C58="","",[2]bep!$C58)</f>
+        <v/>
+      </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:34">
       <c r="A59" t="str">
         <f>IF([1]phat!$C59 = "", "", [1]phat!$C59)</f>
         <v/>
@@ -9335,8 +9671,12 @@
         <f>IF([2]chua!$L59 = "", "", [2]chua!$L59)</f>
         <v/>
       </c>
+      <c r="AH59" s="1" t="str">
+        <f>IF([2]bep!$C59="","",[2]bep!$C59)</f>
+        <v/>
+      </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:34">
       <c r="A60" t="str">
         <f>IF([1]phat!$C60 = "", "", [1]phat!$C60)</f>
         <v/>
@@ -9469,8 +9809,12 @@
         <f>IF([2]chua!$L60 = "", "", [2]chua!$L60)</f>
         <v/>
       </c>
+      <c r="AH60" s="1" t="str">
+        <f>IF([2]bep!$C60="","",[2]bep!$C60)</f>
+        <v/>
+      </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:34">
       <c r="A61" t="str">
         <f>IF([1]phat!$C61 = "", "", [1]phat!$C61)</f>
         <v/>
@@ -9603,8 +9947,12 @@
         <f>IF([2]chua!$L61 = "", "", [2]chua!$L61)</f>
         <v/>
       </c>
+      <c r="AH61" s="1" t="str">
+        <f>IF([2]bep!$C61="","",[2]bep!$C61)</f>
+        <v/>
+      </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:34">
       <c r="A62" t="str">
         <f>IF([1]phat!$C62 = "", "", [1]phat!$C62)</f>
         <v/>
@@ -9737,8 +10085,12 @@
         <f>IF([2]chua!$L62 = "", "", [2]chua!$L62)</f>
         <v/>
       </c>
+      <c r="AH62" s="1" t="str">
+        <f>IF([2]bep!$C62="","",[2]bep!$C62)</f>
+        <v/>
+      </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:34">
       <c r="A63" t="str">
         <f>IF([1]phat!$C63 = "", "", [1]phat!$C63)</f>
         <v/>
@@ -9871,8 +10223,12 @@
         <f>IF([2]chua!$L63 = "", "", [2]chua!$L63)</f>
         <v/>
       </c>
+      <c r="AH63" s="1" t="str">
+        <f>IF([2]bep!$C63="","",[2]bep!$C63)</f>
+        <v/>
+      </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:34">
       <c r="A64" t="str">
         <f>IF([1]phat!$C64 = "", "", [1]phat!$C64)</f>
         <v/>
@@ -10005,8 +10361,12 @@
         <f>IF([2]chua!$L64 = "", "", [2]chua!$L64)</f>
         <v/>
       </c>
+      <c r="AH64" s="1" t="str">
+        <f>IF([2]bep!$C64="","",[2]bep!$C64)</f>
+        <v/>
+      </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:34">
       <c r="A65" t="str">
         <f>IF([1]phat!$C65 = "", "", [1]phat!$C65)</f>
         <v/>
@@ -10139,8 +10499,12 @@
         <f>IF([2]chua!$L65 = "", "", [2]chua!$L65)</f>
         <v/>
       </c>
+      <c r="AH65" s="1" t="str">
+        <f>IF([2]bep!$C65="","",[2]bep!$C65)</f>
+        <v/>
+      </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:34">
       <c r="A66" t="str">
         <f>IF([1]phat!$C66 = "", "", [1]phat!$C66)</f>
         <v/>
@@ -10273,8 +10637,12 @@
         <f>IF([2]chua!$L66 = "", "", [2]chua!$L66)</f>
         <v/>
       </c>
+      <c r="AH66" s="1" t="str">
+        <f>IF([2]bep!$C66="","",[2]bep!$C66)</f>
+        <v/>
+      </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:34">
       <c r="A67" t="str">
         <f>IF([1]phat!$C67 = "", "", [1]phat!$C67)</f>
         <v/>
@@ -10407,8 +10775,12 @@
         <f>IF([2]chua!$L67 = "", "", [2]chua!$L67)</f>
         <v/>
       </c>
+      <c r="AH67" s="1" t="str">
+        <f>IF([2]bep!$C67="","",[2]bep!$C67)</f>
+        <v/>
+      </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:34">
       <c r="A68" t="str">
         <f>IF([1]phat!$C68 = "", "", [1]phat!$C68)</f>
         <v/>
@@ -10541,8 +10913,12 @@
         <f>IF([2]chua!$L68 = "", "", [2]chua!$L68)</f>
         <v/>
       </c>
+      <c r="AH68" s="1" t="str">
+        <f>IF([2]bep!$C68="","",[2]bep!$C68)</f>
+        <v/>
+      </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:34">
       <c r="A69" t="str">
         <f>IF([1]phat!$C69 = "", "", [1]phat!$C69)</f>
         <v/>
@@ -10675,8 +11051,12 @@
         <f>IF([2]chua!$L69 = "", "", [2]chua!$L69)</f>
         <v/>
       </c>
+      <c r="AH69" s="1" t="str">
+        <f>IF([2]bep!$C69="","",[2]bep!$C69)</f>
+        <v/>
+      </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:34">
       <c r="A70" t="str">
         <f>IF([1]phat!$C70 = "", "", [1]phat!$C70)</f>
         <v/>
@@ -10809,8 +11189,12 @@
         <f>IF([2]chua!$L70 = "", "", [2]chua!$L70)</f>
         <v/>
       </c>
+      <c r="AH70" s="1" t="str">
+        <f>IF([2]bep!$C70="","",[2]bep!$C70)</f>
+        <v/>
+      </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:34">
       <c r="A71" t="str">
         <f>IF([1]phat!$C71 = "", "", [1]phat!$C71)</f>
         <v/>
@@ -10943,8 +11327,12 @@
         <f>IF([2]chua!$L71 = "", "", [2]chua!$L71)</f>
         <v/>
       </c>
+      <c r="AH71" s="1" t="str">
+        <f>IF([2]bep!$C71="","",[2]bep!$C71)</f>
+        <v/>
+      </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:34">
       <c r="A72" t="str">
         <f>IF([1]phat!$C72 = "", "", [1]phat!$C72)</f>
         <v/>
@@ -11077,8 +11465,12 @@
         <f>IF([2]chua!$L72 = "", "", [2]chua!$L72)</f>
         <v/>
       </c>
+      <c r="AH72" s="1" t="str">
+        <f>IF([2]bep!$C72="","",[2]bep!$C72)</f>
+        <v/>
+      </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:34">
       <c r="A73" t="str">
         <f>IF([1]phat!$C73 = "", "", [1]phat!$C73)</f>
         <v/>
@@ -11211,8 +11603,12 @@
         <f>IF([2]chua!$L73 = "", "", [2]chua!$L73)</f>
         <v/>
       </c>
+      <c r="AH73" s="1" t="str">
+        <f>IF([2]bep!$C73="","",[2]bep!$C73)</f>
+        <v/>
+      </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:34">
       <c r="A74" t="str">
         <f>IF([1]phat!$C74 = "", "", [1]phat!$C74)</f>
         <v/>
@@ -11345,8 +11741,12 @@
         <f>IF([2]chua!$L74 = "", "", [2]chua!$L74)</f>
         <v/>
       </c>
+      <c r="AH74" s="1" t="str">
+        <f>IF([2]bep!$C74="","",[2]bep!$C74)</f>
+        <v/>
+      </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:34">
       <c r="A75" t="str">
         <f>IF([1]phat!$C75 = "", "", [1]phat!$C75)</f>
         <v/>
@@ -11479,8 +11879,12 @@
         <f>IF([2]chua!$L75 = "", "", [2]chua!$L75)</f>
         <v/>
       </c>
+      <c r="AH75" s="1" t="str">
+        <f>IF([2]bep!$C75="","",[2]bep!$C75)</f>
+        <v/>
+      </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:34">
       <c r="A76" t="str">
         <f>IF([1]phat!$C76 = "", "", [1]phat!$C76)</f>
         <v/>
@@ -11613,8 +12017,12 @@
         <f>IF([2]chua!$L76 = "", "", [2]chua!$L76)</f>
         <v/>
       </c>
+      <c r="AH76" s="1" t="str">
+        <f>IF([2]bep!$C76="","",[2]bep!$C76)</f>
+        <v/>
+      </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:34">
       <c r="A77" t="str">
         <f>IF([1]phat!$C77 = "", "", [1]phat!$C77)</f>
         <v/>
@@ -11747,8 +12155,12 @@
         <f>IF([2]chua!$L77 = "", "", [2]chua!$L77)</f>
         <v/>
       </c>
+      <c r="AH77" s="1" t="str">
+        <f>IF([2]bep!$C77="","",[2]bep!$C77)</f>
+        <v/>
+      </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:34">
       <c r="A78" t="str">
         <f>IF([1]phat!$C78 = "", "", [1]phat!$C78)</f>
         <v/>
@@ -11881,8 +12293,12 @@
         <f>IF([2]chua!$L78 = "", "", [2]chua!$L78)</f>
         <v/>
       </c>
+      <c r="AH78" s="1" t="str">
+        <f>IF([2]bep!$C78="","",[2]bep!$C78)</f>
+        <v/>
+      </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:34">
       <c r="A79" t="str">
         <f>IF([1]phat!$C79 = "", "", [1]phat!$C79)</f>
         <v/>
@@ -12015,8 +12431,12 @@
         <f>IF([2]chua!$L79 = "", "", [2]chua!$L79)</f>
         <v/>
       </c>
+      <c r="AH79" s="1" t="str">
+        <f>IF([2]bep!$C79="","",[2]bep!$C79)</f>
+        <v/>
+      </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:34">
       <c r="A80" t="str">
         <f>IF([1]phat!$C80 = "", "", [1]phat!$C80)</f>
         <v/>
@@ -12149,8 +12569,12 @@
         <f>IF([2]chua!$L80 = "", "", [2]chua!$L80)</f>
         <v/>
       </c>
+      <c r="AH80" s="1" t="str">
+        <f>IF([2]bep!$C80="","",[2]bep!$C80)</f>
+        <v/>
+      </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:34">
       <c r="A81" t="str">
         <f>IF([1]phat!$C81 = "", "", [1]phat!$C81)</f>
         <v/>
@@ -12283,8 +12707,12 @@
         <f>IF([2]chua!$L81 = "", "", [2]chua!$L81)</f>
         <v/>
       </c>
+      <c r="AH81" s="1" t="str">
+        <f>IF([2]bep!$C81="","",[2]bep!$C81)</f>
+        <v/>
+      </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:34">
       <c r="A82" t="str">
         <f>IF([1]phat!$C82 = "", "", [1]phat!$C82)</f>
         <v/>
@@ -12417,8 +12845,12 @@
         <f>IF([2]chua!$L82 = "", "", [2]chua!$L82)</f>
         <v/>
       </c>
+      <c r="AH82" s="1" t="str">
+        <f>IF([2]bep!$C82="","",[2]bep!$C82)</f>
+        <v/>
+      </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:34">
       <c r="A83" t="str">
         <f>IF([1]phat!$C83 = "", "", [1]phat!$C83)</f>
         <v/>
@@ -12551,8 +12983,12 @@
         <f>IF([2]chua!$L83 = "", "", [2]chua!$L83)</f>
         <v/>
       </c>
+      <c r="AH83" s="1" t="str">
+        <f>IF([2]bep!$C83="","",[2]bep!$C83)</f>
+        <v/>
+      </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:34">
       <c r="A84" t="str">
         <f>IF([1]phat!$C84 = "", "", [1]phat!$C84)</f>
         <v/>
@@ -12685,8 +13121,12 @@
         <f>IF([2]chua!$L84 = "", "", [2]chua!$L84)</f>
         <v/>
       </c>
+      <c r="AH84" s="1" t="str">
+        <f>IF([2]bep!$C84="","",[2]bep!$C84)</f>
+        <v/>
+      </c>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:34">
       <c r="A85" t="str">
         <f>IF([1]phat!$C85 = "", "", [1]phat!$C85)</f>
         <v/>
@@ -12819,8 +13259,12 @@
         <f>IF([2]chua!$L85 = "", "", [2]chua!$L85)</f>
         <v/>
       </c>
+      <c r="AH85" s="1" t="str">
+        <f>IF([2]bep!$C85="","",[2]bep!$C85)</f>
+        <v/>
+      </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:34">
       <c r="A86" t="str">
         <f>IF([1]phat!$C86 = "", "", [1]phat!$C86)</f>
         <v/>
@@ -12953,8 +13397,12 @@
         <f>IF([2]chua!$L86 = "", "", [2]chua!$L86)</f>
         <v/>
       </c>
+      <c r="AH86" s="1" t="str">
+        <f>IF([2]bep!$C86="","",[2]bep!$C86)</f>
+        <v/>
+      </c>
     </row>
-    <row r="87" spans="1:33">
+    <row r="87" spans="1:34">
       <c r="A87" t="str">
         <f>IF([1]phat!$C87 = "", "", [1]phat!$C87)</f>
         <v/>
@@ -13087,8 +13535,12 @@
         <f>IF([2]chua!$L87 = "", "", [2]chua!$L87)</f>
         <v/>
       </c>
+      <c r="AH87" s="1" t="str">
+        <f>IF([2]bep!$C87="","",[2]bep!$C87)</f>
+        <v/>
+      </c>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:34">
       <c r="A88" t="str">
         <f>IF([1]phat!$C88 = "", "", [1]phat!$C88)</f>
         <v/>
@@ -13221,8 +13673,12 @@
         <f>IF([2]chua!$L88 = "", "", [2]chua!$L88)</f>
         <v/>
       </c>
+      <c r="AH88" s="1" t="str">
+        <f>IF([2]bep!$C88="","",[2]bep!$C88)</f>
+        <v/>
+      </c>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:34">
       <c r="A89" t="str">
         <f>IF([1]phat!$C89 = "", "", [1]phat!$C89)</f>
         <v/>
@@ -13355,8 +13811,12 @@
         <f>IF([2]chua!$L89 = "", "", [2]chua!$L89)</f>
         <v/>
       </c>
+      <c r="AH89" s="1" t="str">
+        <f>IF([2]bep!$C89="","",[2]bep!$C89)</f>
+        <v/>
+      </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:34">
       <c r="A90" t="str">
         <f>IF([1]phat!$C90 = "", "", [1]phat!$C90)</f>
         <v/>
@@ -13489,8 +13949,12 @@
         <f>IF([2]chua!$L90 = "", "", [2]chua!$L90)</f>
         <v/>
       </c>
+      <c r="AH90" s="1" t="str">
+        <f>IF([2]bep!$C90="","",[2]bep!$C90)</f>
+        <v/>
+      </c>
     </row>
-    <row r="91" spans="1:33">
+    <row r="91" spans="1:34">
       <c r="A91" t="str">
         <f>IF([1]phat!$C91 = "", "", [1]phat!$C91)</f>
         <v/>
@@ -13623,8 +14087,12 @@
         <f>IF([2]chua!$L91 = "", "", [2]chua!$L91)</f>
         <v/>
       </c>
+      <c r="AH91" s="1" t="str">
+        <f>IF([2]bep!$C91="","",[2]bep!$C91)</f>
+        <v/>
+      </c>
     </row>
-    <row r="92" spans="1:33">
+    <row r="92" spans="1:34">
       <c r="A92" t="str">
         <f>IF([1]phat!$C92 = "", "", [1]phat!$C92)</f>
         <v/>
@@ -13757,8 +14225,12 @@
         <f>IF([2]chua!$L92 = "", "", [2]chua!$L92)</f>
         <v/>
       </c>
+      <c r="AH92" s="1" t="str">
+        <f>IF([2]bep!$C92="","",[2]bep!$C92)</f>
+        <v/>
+      </c>
     </row>
-    <row r="93" spans="1:33">
+    <row r="93" spans="1:34">
       <c r="A93" t="str">
         <f>IF([1]phat!$C93 = "", "", [1]phat!$C93)</f>
         <v/>
@@ -13891,8 +14363,12 @@
         <f>IF([2]chua!$L93 = "", "", [2]chua!$L93)</f>
         <v/>
       </c>
+      <c r="AH93" s="1" t="str">
+        <f>IF([2]bep!$C93="","",[2]bep!$C93)</f>
+        <v/>
+      </c>
     </row>
-    <row r="94" spans="1:33">
+    <row r="94" spans="1:34">
       <c r="A94" t="str">
         <f>IF([1]phat!$C94 = "", "", [1]phat!$C94)</f>
         <v/>
@@ -14025,8 +14501,12 @@
         <f>IF([2]chua!$L94 = "", "", [2]chua!$L94)</f>
         <v/>
       </c>
+      <c r="AH94" s="1" t="str">
+        <f>IF([2]bep!$C94="","",[2]bep!$C94)</f>
+        <v/>
+      </c>
     </row>
-    <row r="95" spans="1:33">
+    <row r="95" spans="1:34">
       <c r="A95" t="str">
         <f>IF([1]phat!$C95 = "", "", [1]phat!$C95)</f>
         <v/>
@@ -14159,8 +14639,12 @@
         <f>IF([2]chua!$L95 = "", "", [2]chua!$L95)</f>
         <v/>
       </c>
+      <c r="AH95" s="1" t="str">
+        <f>IF([2]bep!$C95="","",[2]bep!$C95)</f>
+        <v/>
+      </c>
     </row>
-    <row r="96" spans="1:33">
+    <row r="96" spans="1:34">
       <c r="A96" t="str">
         <f>IF([1]phat!$C96 = "", "", [1]phat!$C96)</f>
         <v/>
@@ -14293,8 +14777,12 @@
         <f>IF([2]chua!$L96 = "", "", [2]chua!$L96)</f>
         <v/>
       </c>
+      <c r="AH96" s="1" t="str">
+        <f>IF([2]bep!$C96="","",[2]bep!$C96)</f>
+        <v/>
+      </c>
     </row>
-    <row r="97" spans="1:33">
+    <row r="97" spans="1:34">
       <c r="A97" t="str">
         <f>IF([1]phat!$C97 = "", "", [1]phat!$C97)</f>
         <v/>
@@ -14427,8 +14915,12 @@
         <f>IF([2]chua!$L97 = "", "", [2]chua!$L97)</f>
         <v/>
       </c>
+      <c r="AH97" s="1" t="str">
+        <f>IF([2]bep!$C97="","",[2]bep!$C97)</f>
+        <v/>
+      </c>
     </row>
-    <row r="98" spans="1:33">
+    <row r="98" spans="1:34">
       <c r="A98" t="str">
         <f>IF([1]phat!$C98 = "", "", [1]phat!$C98)</f>
         <v/>
@@ -14561,8 +15053,12 @@
         <f>IF([2]chua!$L98 = "", "", [2]chua!$L98)</f>
         <v/>
       </c>
+      <c r="AH98" s="1" t="str">
+        <f>IF([2]bep!$C98="","",[2]bep!$C98)</f>
+        <v/>
+      </c>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:34">
       <c r="A99" t="str">
         <f>IF([1]phat!$C99 = "", "", [1]phat!$C99)</f>
         <v/>
@@ -14695,8 +15191,12 @@
         <f>IF([2]chua!$L99 = "", "", [2]chua!$L99)</f>
         <v/>
       </c>
+      <c r="AH99" s="1" t="str">
+        <f>IF([2]bep!$C99="","",[2]bep!$C99)</f>
+        <v/>
+      </c>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:34">
       <c r="A100" t="str">
         <f>IF([1]phat!$C100 = "", "", [1]phat!$C100)</f>
         <v/>
@@ -14829,132 +15329,145 @@
         <f>IF([2]chua!$L100 = "", "", [2]chua!$L100)</f>
         <v/>
       </c>
+      <c r="AH100" s="1" t="str">
+        <f>IF([2]bep!$C100="","",[2]bep!$C100)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:C100 E3:F100 H3:I100 Q3:R100 T3:U100 W3:X100 Z3:AA100 AC3:AD100 AF3:AG100 K3:L100 N3:O100">
-    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
+  <conditionalFormatting sqref="B3:C100 E3:F100 H3:I100 Q3:R100 T3:U100 W3:X100 Z3:AA100 AC3:AD100 AF3:AG100 N3:O100 K3:L100">
+    <cfRule type="duplicateValues" dxfId="24" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="expression" dxfId="21" priority="25">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$B3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C100">
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="22" priority="26">
       <formula>$C3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E100">
-    <cfRule type="expression" dxfId="19" priority="23">
+    <cfRule type="expression" dxfId="21" priority="25">
       <formula>$E3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F100">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>$F3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H100">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>$H3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I100">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>$I3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K100">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="17" priority="20">
       <formula>$K3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L100">
-    <cfRule type="expression" dxfId="14" priority="17">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>$L3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N100">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$N3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O100">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>$O3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q100">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>$Q3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R100">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>$R3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T100">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>$T3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U100">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>$U3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:W100">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$W3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3:X100">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>$X3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z3:Z100">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$Z3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA3:AA100">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$AA3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AC100">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$AC3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD100">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$AD3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF3:AF100">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$AF3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG100">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$AG3=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$AG3=""</formula>
+      <formula>$AF3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
